--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2709038.690369417</v>
+        <v>2707417.858581721</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2125738.48770998</v>
+        <v>2125738.487709979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>44.13217237922859</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>16.93162886246721</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -738,17 +738,17 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D3" t="n">
-        <v>38.12502610536669</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -820,14 +820,14 @@
         <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>42.20118209180435</v>
+      </c>
+      <c r="F4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="E4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.790450447682262</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6.702134960233244</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="E6" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="F6" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G6" t="n">
-        <v>38.12502610536669</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1051,53 +1051,53 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q7" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.7904504476822691</v>
-      </c>
-      <c r="F7" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G7" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
     </row>
     <row r="8">
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13.57818070194468</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16.93162886246721</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>38.87161743162455</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="T9" t="n">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="U9" t="n">
-        <v>38.12502610536669</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="E10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>44.13217237922859</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>240.6299328826557</v>
       </c>
       <c r="I11" t="n">
-        <v>41.93909383880757</v>
+        <v>41.93909383880759</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.29092880625336</v>
+        <v>79.29092880625267</v>
       </c>
       <c r="T11" t="n">
         <v>138.6853848170636</v>
@@ -1467,7 +1467,7 @@
         <v>99.51512637174673</v>
       </c>
       <c r="I12" t="n">
-        <v>44.04945063602661</v>
+        <v>44.04945063602663</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.38271167607762</v>
+        <v>18.38271167607765</v>
       </c>
       <c r="S12" t="n">
         <v>147.218799551969</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.1973168652948</v>
+        <v>0.2504303501931986</v>
       </c>
       <c r="C13" t="n">
-        <v>93.61215778198529</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>74.98080970156981</v>
+        <v>74.98080970156978</v>
       </c>
       <c r="E13" t="n">
-        <v>72.79929932992663</v>
+        <v>72.7992993299266</v>
       </c>
       <c r="F13" t="n">
-        <v>71.7863847062887</v>
+        <v>71.78638470628867</v>
       </c>
       <c r="G13" t="n">
-        <v>93.25211191812106</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>78.77513070921638</v>
+        <v>78.77513070921636</v>
       </c>
       <c r="I13" t="n">
-        <v>48.60938214531024</v>
+        <v>48.60938214531023</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.00969537146983</v>
       </c>
       <c r="S13" t="n">
         <v>131.1386683101149</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>149.5929630376687</v>
       </c>
       <c r="U13" t="n">
         <v>212.6241367240104</v>
@@ -1588,7 +1588,7 @@
         <v>178.5029800071854</v>
       </c>
       <c r="W13" t="n">
-        <v>123.6798372138787</v>
+        <v>212.8883350199484</v>
       </c>
       <c r="X13" t="n">
         <v>152.0749920723946</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309.099178346838</v>
+        <v>309.0991783468381</v>
       </c>
       <c r="C14" t="n">
         <v>291.638228454365</v>
       </c>
       <c r="D14" t="n">
-        <v>281.0483783040404</v>
+        <v>281.0483783040405</v>
       </c>
       <c r="E14" t="n">
-        <v>308.2957067556192</v>
+        <v>308.2957067556193</v>
       </c>
       <c r="F14" t="n">
         <v>333.2413824250689</v>
       </c>
       <c r="G14" t="n">
-        <v>339.2064405193548</v>
+        <v>339.2064405193549</v>
       </c>
       <c r="H14" t="n">
-        <v>240.6299328826557</v>
+        <v>240.6299328826558</v>
       </c>
       <c r="I14" t="n">
-        <v>41.93909383880759</v>
+        <v>41.93909383880764</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.29092880625269</v>
+        <v>79.29092880625274</v>
       </c>
       <c r="T14" t="n">
         <v>138.6853848170636</v>
       </c>
       <c r="U14" t="n">
-        <v>177.5140588968629</v>
+        <v>177.514058896863</v>
       </c>
       <c r="V14" t="n">
-        <v>254.1175951534923</v>
+        <v>254.1175951534924</v>
       </c>
       <c r="W14" t="n">
         <v>275.6063054007705</v>
@@ -1673,7 +1673,7 @@
         <v>296.0964373618265</v>
       </c>
       <c r="Y14" t="n">
-        <v>312.603275339411</v>
+        <v>312.6032753394111</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>106.1973168652948</v>
       </c>
       <c r="C16" t="n">
-        <v>93.61215778198529</v>
+        <v>93.61215778198533</v>
       </c>
       <c r="D16" t="n">
-        <v>74.98080970156981</v>
+        <v>26.99619544362442</v>
       </c>
       <c r="E16" t="n">
-        <v>72.79929932992663</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.7863847062887</v>
+        <v>71.78638470628874</v>
       </c>
       <c r="G16" t="n">
-        <v>93.25211191812106</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>78.77513070921638</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48.60938214531025</v>
+        <v>48.60938214531029</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.00969537146985</v>
+        <v>54.0096953714699</v>
       </c>
       <c r="S16" t="n">
-        <v>131.1386683101149</v>
+        <v>131.138668310115</v>
       </c>
       <c r="T16" t="n">
         <v>149.5929630376687</v>
@@ -1822,16 +1822,16 @@
         <v>212.6241367240104</v>
       </c>
       <c r="V16" t="n">
-        <v>37.76681586437154</v>
+        <v>178.5029800071855</v>
       </c>
       <c r="W16" t="n">
-        <v>212.8883350199484</v>
+        <v>212.8883350199485</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>152.0749920723947</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.9499900354522</v>
+        <v>144.9499900354523</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>339.2064405193548</v>
       </c>
       <c r="H17" t="n">
-        <v>240.6299328826562</v>
+        <v>240.6299328826557</v>
       </c>
       <c r="I17" t="n">
         <v>41.93909383880758</v>
@@ -2005,19 +2005,19 @@
         <v>93.61215778198527</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7.043944888683312</v>
       </c>
       <c r="E19" t="n">
-        <v>72.79929932992661</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.78638470628869</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>93.25211191812105</v>
       </c>
       <c r="H19" t="n">
-        <v>25.98328081998809</v>
+        <v>78.77513070921637</v>
       </c>
       <c r="I19" t="n">
         <v>48.60938214531024</v>
@@ -2065,7 +2065,7 @@
         <v>212.8883350199484</v>
       </c>
       <c r="X19" t="n">
-        <v>152.0749920723946</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>144.9499900354522</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>309.099178346838</v>
+        <v>309.0991783468381</v>
       </c>
       <c r="C20" t="n">
         <v>291.638228454365</v>
       </c>
       <c r="D20" t="n">
-        <v>281.0483783040404</v>
+        <v>281.0483783040405</v>
       </c>
       <c r="E20" t="n">
-        <v>308.2957067556192</v>
+        <v>308.2957067556193</v>
       </c>
       <c r="F20" t="n">
         <v>333.2413824250689</v>
       </c>
       <c r="G20" t="n">
-        <v>339.2064405193548</v>
+        <v>339.2064405193549</v>
       </c>
       <c r="H20" t="n">
-        <v>240.6299328826557</v>
+        <v>240.6299328826558</v>
       </c>
       <c r="I20" t="n">
-        <v>41.9390938388081</v>
+        <v>41.93909383880762</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>79.29092880625268</v>
+        <v>79.29092880625271</v>
       </c>
       <c r="T20" t="n">
         <v>138.6853848170636</v>
       </c>
       <c r="U20" t="n">
-        <v>177.5140588968629</v>
+        <v>177.514058896863</v>
       </c>
       <c r="V20" t="n">
-        <v>254.1175951534923</v>
+        <v>254.1175951534924</v>
       </c>
       <c r="W20" t="n">
         <v>275.6063054007705</v>
@@ -2147,7 +2147,7 @@
         <v>296.0964373618265</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.603275339411</v>
+        <v>312.6032753394111</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.1973168652947</v>
+        <v>106.1973168652948</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>93.61215778198532</v>
       </c>
       <c r="D22" t="n">
-        <v>74.9808097015698</v>
+        <v>74.98080970156984</v>
       </c>
       <c r="E22" t="n">
-        <v>72.79929932992661</v>
+        <v>72.79929932992665</v>
       </c>
       <c r="F22" t="n">
-        <v>71.78638470628869</v>
+        <v>71.78638470628873</v>
       </c>
       <c r="G22" t="n">
-        <v>93.25211191812105</v>
+        <v>93.25211191812109</v>
       </c>
       <c r="H22" t="n">
-        <v>78.77513070921637</v>
+        <v>78.77513070921641</v>
       </c>
       <c r="I22" t="n">
-        <v>48.60938214531024</v>
+        <v>48.60938214531028</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.00969537146984</v>
+        <v>37.28719750182865</v>
       </c>
       <c r="S22" t="n">
-        <v>131.1386683101149</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>149.5929630376687</v>
@@ -2296,16 +2296,16 @@
         <v>212.6241367240104</v>
       </c>
       <c r="V22" t="n">
-        <v>178.5029800071854</v>
+        <v>178.5029800071855</v>
       </c>
       <c r="W22" t="n">
-        <v>13.68933658672584</v>
+        <v>212.8883350199485</v>
       </c>
       <c r="X22" t="n">
-        <v>152.0749920723946</v>
+        <v>152.0749920723947</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.9499900354522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>309.099178346838</v>
+        <v>309.0991783468381</v>
       </c>
       <c r="C23" t="n">
         <v>291.638228454365</v>
       </c>
       <c r="D23" t="n">
-        <v>281.0483783040404</v>
+        <v>281.0483783040405</v>
       </c>
       <c r="E23" t="n">
-        <v>308.2957067556192</v>
+        <v>308.2957067556193</v>
       </c>
       <c r="F23" t="n">
         <v>333.2413824250689</v>
       </c>
       <c r="G23" t="n">
-        <v>339.2064405193548</v>
+        <v>339.2064405193549</v>
       </c>
       <c r="H23" t="n">
-        <v>240.6299328826557</v>
+        <v>240.6299328826545</v>
       </c>
       <c r="I23" t="n">
-        <v>41.93909383880757</v>
+        <v>41.93909383880764</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>79.29092880625267</v>
+        <v>79.29092880625271</v>
       </c>
       <c r="T23" t="n">
         <v>138.6853848170636</v>
       </c>
       <c r="U23" t="n">
-        <v>177.5140588968629</v>
+        <v>177.514058896863</v>
       </c>
       <c r="V23" t="n">
-        <v>254.1175951534923</v>
+        <v>254.1175951534924</v>
       </c>
       <c r="W23" t="n">
         <v>275.6063054007705</v>
@@ -2384,7 +2384,7 @@
         <v>296.0964373618265</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.603275339411</v>
+        <v>312.6032753394111</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.1973168652947</v>
+        <v>106.1973168652948</v>
       </c>
       <c r="C25" t="n">
-        <v>93.61215778198526</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>74.98080970156984</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.78638470628873</v>
       </c>
       <c r="G25" t="n">
-        <v>93.25211191812103</v>
+        <v>20.86210818629374</v>
       </c>
       <c r="H25" t="n">
-        <v>78.77513070921636</v>
+        <v>78.77513070921641</v>
       </c>
       <c r="I25" t="n">
-        <v>29.37441503935721</v>
+        <v>48.60938214531028</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>131.1386683101149</v>
+        <v>131.138668310115</v>
       </c>
       <c r="T25" t="n">
         <v>149.5929630376687</v>
@@ -2533,16 +2533,16 @@
         <v>212.6241367240104</v>
       </c>
       <c r="V25" t="n">
-        <v>178.5029800071854</v>
+        <v>178.5029800071855</v>
       </c>
       <c r="W25" t="n">
-        <v>212.8883350199484</v>
+        <v>212.8883350199485</v>
       </c>
       <c r="X25" t="n">
-        <v>152.0749920723946</v>
+        <v>152.0749920723947</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.9499900354522</v>
+        <v>144.9499900354523</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>339.2064405193548</v>
       </c>
       <c r="H26" t="n">
-        <v>240.6299328826558</v>
+        <v>240.6299328826557</v>
       </c>
       <c r="I26" t="n">
-        <v>41.93909383880761</v>
+        <v>41.93909383880759</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.29092880625271</v>
+        <v>79.29092880625269</v>
       </c>
       <c r="T26" t="n">
-        <v>138.6853848170643</v>
+        <v>138.6853848170636</v>
       </c>
       <c r="U26" t="n">
-        <v>177.514058896863</v>
+        <v>177.5140588968629</v>
       </c>
       <c r="V26" t="n">
-        <v>254.1175951534924</v>
+        <v>254.1175951534923</v>
       </c>
       <c r="W26" t="n">
         <v>275.6063054007705</v>
@@ -2621,7 +2621,7 @@
         <v>296.0964373618265</v>
       </c>
       <c r="Y26" t="n">
-        <v>312.6032753394111</v>
+        <v>312.603275339411</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>106.1973168652948</v>
       </c>
       <c r="C28" t="n">
-        <v>93.6121577819853</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>74.98080970156983</v>
+        <v>74.98080970156981</v>
       </c>
       <c r="E28" t="n">
-        <v>72.79929932992664</v>
+        <v>72.79929932992663</v>
       </c>
       <c r="F28" t="n">
-        <v>3.366008719315771</v>
+        <v>71.7863847062887</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>93.25211191812106</v>
       </c>
       <c r="H28" t="n">
-        <v>78.7751307092164</v>
+        <v>78.77513070921638</v>
       </c>
       <c r="I28" t="n">
-        <v>48.60938214531026</v>
+        <v>48.60938214531025</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.00969537146986</v>
+        <v>54.00969537146985</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>131.1386683101149</v>
       </c>
       <c r="T28" t="n">
         <v>149.5929630376687</v>
@@ -2770,16 +2770,16 @@
         <v>212.6241367240104</v>
       </c>
       <c r="V28" t="n">
-        <v>178.5029800071855</v>
+        <v>178.5029800071854</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8883350199485</v>
+        <v>13.68933658672495</v>
       </c>
       <c r="X28" t="n">
         <v>152.0749920723946</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.9499900354523</v>
+        <v>144.9499900354522</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>339.2064405193548</v>
       </c>
       <c r="H29" t="n">
-        <v>240.6299328826558</v>
+        <v>240.6299328826557</v>
       </c>
       <c r="I29" t="n">
-        <v>41.93909383880761</v>
+        <v>41.93909383880757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.29092880625271</v>
+        <v>79.29092880625267</v>
       </c>
       <c r="T29" t="n">
         <v>138.6853848170636</v>
       </c>
       <c r="U29" t="n">
-        <v>177.514058896863</v>
+        <v>177.5140588968629</v>
       </c>
       <c r="V29" t="n">
-        <v>254.1175951534924</v>
+        <v>254.1175951534923</v>
       </c>
       <c r="W29" t="n">
         <v>275.6063054007705</v>
@@ -2858,7 +2858,7 @@
         <v>296.0964373618265</v>
       </c>
       <c r="Y29" t="n">
-        <v>312.6032753394111</v>
+        <v>312.603275339411</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.1973168652948</v>
+        <v>106.1973168652947</v>
       </c>
       <c r="C31" t="n">
-        <v>93.6121577819853</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>74.98080970156983</v>
+        <v>74.98080970156978</v>
       </c>
       <c r="E31" t="n">
-        <v>72.79929932992664</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.17733044465302</v>
+        <v>71.78638470628867</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>93.25211191812103</v>
       </c>
       <c r="H31" t="n">
-        <v>78.7751307092164</v>
+        <v>78.77513070921636</v>
       </c>
       <c r="I31" t="n">
-        <v>48.60938214531026</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.00969537146986</v>
+        <v>54.00969537146982</v>
       </c>
       <c r="S31" t="n">
         <v>131.1386683101149</v>
@@ -3007,16 +3007,16 @@
         <v>212.6241367240104</v>
       </c>
       <c r="V31" t="n">
-        <v>178.5029800071855</v>
+        <v>178.5029800071854</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8883350199485</v>
+        <v>212.8883350199484</v>
       </c>
       <c r="X31" t="n">
-        <v>152.0749920723946</v>
+        <v>74.28467511440878</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>144.9499900354522</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>309.0991783468381</v>
+        <v>309.099178346838</v>
       </c>
       <c r="C32" t="n">
         <v>291.638228454365</v>
       </c>
       <c r="D32" t="n">
-        <v>281.0483783040405</v>
+        <v>281.0483783040404</v>
       </c>
       <c r="E32" t="n">
-        <v>308.2957067556193</v>
+        <v>308.2957067556192</v>
       </c>
       <c r="F32" t="n">
-        <v>333.241382425069</v>
+        <v>333.2413824250689</v>
       </c>
       <c r="G32" t="n">
-        <v>339.2064405193549</v>
+        <v>339.2064405193548</v>
       </c>
       <c r="H32" t="n">
-        <v>240.6299328826558</v>
+        <v>240.6299328826557</v>
       </c>
       <c r="I32" t="n">
-        <v>41.93909383880766</v>
+        <v>41.93909383880759</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.29092880625277</v>
+        <v>79.29092880625269</v>
       </c>
       <c r="T32" t="n">
-        <v>138.6853848170637</v>
+        <v>138.6853848170636</v>
       </c>
       <c r="U32" t="n">
-        <v>177.514058896863</v>
+        <v>177.5140588968629</v>
       </c>
       <c r="V32" t="n">
-        <v>254.1175951534924</v>
+        <v>254.1175951534923</v>
       </c>
       <c r="W32" t="n">
-        <v>275.6063054007706</v>
+        <v>275.6063054007705</v>
       </c>
       <c r="X32" t="n">
-        <v>296.0964373618266</v>
+        <v>296.0964373618265</v>
       </c>
       <c r="Y32" t="n">
-        <v>312.6032753394111</v>
+        <v>312.603275339411</v>
       </c>
     </row>
     <row r="33">
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>74.98080970156981</v>
       </c>
       <c r="E34" t="n">
-        <v>72.7992993299267</v>
+        <v>72.79929932992663</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.7863847062887</v>
       </c>
       <c r="G34" t="n">
-        <v>89.42969003806482</v>
+        <v>75.44732171089451</v>
       </c>
       <c r="H34" t="n">
-        <v>78.77513070921646</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.00969537146992</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>131.138668310115</v>
+        <v>131.1386683101149</v>
       </c>
       <c r="T34" t="n">
-        <v>149.5929630376688</v>
+        <v>149.5929630376687</v>
       </c>
       <c r="U34" t="n">
-        <v>212.6241367240105</v>
+        <v>212.6241367240104</v>
       </c>
       <c r="V34" t="n">
-        <v>178.5029800071855</v>
+        <v>178.5029800071854</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8883350199485</v>
+        <v>212.8883350199484</v>
       </c>
       <c r="X34" t="n">
-        <v>152.0749920723947</v>
+        <v>152.0749920723946</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.9499900354523</v>
+        <v>144.9499900354522</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>240.6299328826557</v>
       </c>
       <c r="I35" t="n">
-        <v>41.93909383880761</v>
+        <v>41.93909383880757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.29092880625271</v>
+        <v>79.29092880625265</v>
       </c>
       <c r="T35" t="n">
         <v>138.6853848170636</v>
       </c>
       <c r="U35" t="n">
-        <v>177.514058896863</v>
+        <v>177.5140588968629</v>
       </c>
       <c r="V35" t="n">
-        <v>254.1175951534924</v>
+        <v>254.1175951534923</v>
       </c>
       <c r="W35" t="n">
         <v>275.6063054007705</v>
@@ -3332,7 +3332,7 @@
         <v>296.0964373618265</v>
       </c>
       <c r="Y35" t="n">
-        <v>312.6032753394111</v>
+        <v>312.603275339411</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.1973168652948</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>93.6121577819853</v>
+        <v>93.61215778198526</v>
       </c>
       <c r="D37" t="n">
-        <v>74.98080970156983</v>
+        <v>74.98080970156978</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.78638470628867</v>
       </c>
       <c r="G37" t="n">
-        <v>72.41115259365347</v>
+        <v>93.25211191812103</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>13.56997283454004</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.00969537146987</v>
+        <v>54.00969537146982</v>
       </c>
       <c r="S37" t="n">
         <v>131.1386683101149</v>
@@ -3481,16 +3481,16 @@
         <v>212.6241367240104</v>
       </c>
       <c r="V37" t="n">
-        <v>178.5029800071855</v>
+        <v>178.5029800071854</v>
       </c>
       <c r="W37" t="n">
-        <v>212.8883350199485</v>
+        <v>212.8883350199484</v>
       </c>
       <c r="X37" t="n">
         <v>152.0749920723946</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.9499900354523</v>
+        <v>144.9499900354522</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>240.6299328826557</v>
       </c>
       <c r="I38" t="n">
-        <v>41.93909383880761</v>
+        <v>41.93909383880759</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>138.6853848170636</v>
       </c>
       <c r="U38" t="n">
-        <v>177.514058896863</v>
+        <v>177.5140588968629</v>
       </c>
       <c r="V38" t="n">
-        <v>254.1175951534924</v>
+        <v>254.1175951534923</v>
       </c>
       <c r="W38" t="n">
         <v>275.6063054007705</v>
@@ -3569,7 +3569,7 @@
         <v>296.0964373618265</v>
       </c>
       <c r="Y38" t="n">
-        <v>312.6032753394111</v>
+        <v>312.603275339411</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>74.98080970156983</v>
+        <v>74.98080970156981</v>
       </c>
       <c r="E40" t="n">
-        <v>72.79929932992664</v>
+        <v>72.79929932992663</v>
       </c>
       <c r="F40" t="n">
-        <v>71.78638470628871</v>
+        <v>71.7863847062887</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>21.43762633942438</v>
+        <v>78.77513070921638</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>48.60938214531025</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.00969537146987</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>131.1386683101149</v>
@@ -3718,16 +3718,16 @@
         <v>212.6241367240104</v>
       </c>
       <c r="V40" t="n">
-        <v>178.5029800071855</v>
+        <v>178.5029800071854</v>
       </c>
       <c r="W40" t="n">
-        <v>212.8883350199485</v>
+        <v>212.8883350199484</v>
       </c>
       <c r="X40" t="n">
         <v>152.0749920723946</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.9499900354523</v>
+        <v>93.01279889182051</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>353.5368505029129</v>
+        <v>353.5368505029131</v>
       </c>
       <c r="C41" t="n">
-        <v>336.0759006104399</v>
+        <v>336.07590061044</v>
       </c>
       <c r="D41" t="n">
-        <v>325.4860504601153</v>
+        <v>325.4860504601155</v>
       </c>
       <c r="E41" t="n">
-        <v>352.7333789116941</v>
+        <v>352.7333789116943</v>
       </c>
       <c r="F41" t="n">
-        <v>377.6790545811438</v>
+        <v>377.6790545811439</v>
       </c>
       <c r="G41" t="n">
-        <v>383.6441126754297</v>
+        <v>62.7593623495696</v>
       </c>
       <c r="H41" t="n">
-        <v>127.1631569643852</v>
+        <v>285.0676050387308</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>86.37676599488266</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>183.1230569731385</v>
+        <v>183.1230569731387</v>
       </c>
       <c r="U41" t="n">
-        <v>221.9517310529378</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>298.5552673095674</v>
       </c>
       <c r="W41" t="n">
-        <v>320.0439775568453</v>
+        <v>320.0439775568455</v>
       </c>
       <c r="X41" t="n">
-        <v>340.5341095179014</v>
+        <v>340.5341095179015</v>
       </c>
       <c r="Y41" t="n">
-        <v>357.0409474954859</v>
+        <v>357.0409474954861</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>99.51512637174673</v>
       </c>
       <c r="I42" t="n">
-        <v>44.04945063602661</v>
+        <v>44.04945063602662</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>18.38271167607762</v>
+        <v>18.38271167607763</v>
       </c>
       <c r="S42" t="n">
         <v>147.218799551969</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>150.6349890213698</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.0498299380604</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>114.2402246048214</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.7887809335132</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>123.2128028652913</v>
+        <v>123.2128028652914</v>
       </c>
       <c r="I43" t="n">
-        <v>93.04705430138512</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>98.44736752754474</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>175.5763404661898</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>194.0306351937436</v>
+        <v>194.0306351937438</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>257.0618088800854</v>
       </c>
       <c r="V43" t="n">
-        <v>222.9406521632604</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>257.3260071760235</v>
       </c>
       <c r="X43" t="n">
-        <v>196.5126642284695</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>353.5368505029129</v>
+        <v>353.536850502913</v>
       </c>
       <c r="C44" t="n">
         <v>336.0759006104399</v>
@@ -3983,16 +3983,16 @@
         <v>325.4860504601153</v>
       </c>
       <c r="E44" t="n">
-        <v>352.7333789116941</v>
+        <v>352.7333789116942</v>
       </c>
       <c r="F44" t="n">
         <v>377.6790545811438</v>
       </c>
       <c r="G44" t="n">
-        <v>383.6441126754297</v>
+        <v>306.6228308591723</v>
       </c>
       <c r="H44" t="n">
-        <v>285.0676050387306</v>
+        <v>285.0676050387307</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.7286009623276</v>
       </c>
       <c r="T44" t="n">
-        <v>67.19745110712675</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>221.9517310529378</v>
+        <v>221.9517310529379</v>
       </c>
       <c r="V44" t="n">
-        <v>298.5552673095672</v>
+        <v>298.5552673095673</v>
       </c>
       <c r="W44" t="n">
-        <v>320.0439775568453</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>340.5341095179014</v>
       </c>
       <c r="Y44" t="n">
-        <v>357.0409474954859</v>
+        <v>357.040947495486</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>119.4184818576447</v>
+        <v>42.29460732679641</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.689784074196</v>
       </c>
       <c r="H46" t="n">
         <v>123.2128028652913</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>98.44736752754474</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>175.5763404661898</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>41.38617969091101</v>
+        <v>194.0306351937436</v>
       </c>
       <c r="U46" t="n">
         <v>257.0618088800853</v>
@@ -4195,10 +4195,10 @@
         <v>222.9406521632604</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>257.3260071760234</v>
       </c>
       <c r="X46" t="n">
-        <v>196.5126642284695</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="C2" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="D2" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="E2" t="n">
-        <v>77.28117035226589</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F2" t="n">
-        <v>32.70321845405519</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G2" t="n">
         <v>15.60056303742164</v>
@@ -4331,19 +4331,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
         <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
+        <v>90.91227510121089</v>
+      </c>
+      <c r="O2" t="n">
         <v>134.6031257566472</v>
-      </c>
-      <c r="O2" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
@@ -4352,28 +4352,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T2" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="U2" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="V2" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="W2" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="X2" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
     </row>
     <row r="3">
@@ -4386,34 +4386,34 @@
         <v>87.37278572049297</v>
       </c>
       <c r="C3" t="n">
+        <v>87.37278572049297</v>
+      </c>
+      <c r="D3" t="n">
+        <v>87.37278572049297</v>
+      </c>
+      <c r="E3" t="n">
+        <v>87.37278572049297</v>
+      </c>
+      <c r="F3" t="n">
         <v>42.79483382228227</v>
       </c>
-      <c r="D3" t="n">
-        <v>4.284706443124001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.284706443124001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.284706443124001</v>
-      </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="L3" t="n">
         <v>47.22142444577459</v>
-      </c>
-      <c r="L3" t="n">
-        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
         <v>90.91227510121089</v>
@@ -4425,7 +4425,7 @@
         <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
         <v>176.5286895169144</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C4" t="n">
-        <v>93.48491238239833</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="D4" t="n">
-        <v>48.90696048418764</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="E4" t="n">
-        <v>4.329008585976936</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F4" t="n">
         <v>3.530573790338288</v>
@@ -4504,34 +4504,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D5" t="n">
-        <v>104.756466833843</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E5" t="n">
-        <v>104.756466833843</v>
+        <v>25.9333851608903</v>
       </c>
       <c r="F5" t="n">
-        <v>60.17851493563234</v>
+        <v>18.98788441168682</v>
       </c>
       <c r="G5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P5" t="n">
         <v>176.5286895169144</v>
@@ -4589,28 +4589,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T5" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>121.8591222504766</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.756466833843</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="D6" t="n">
-        <v>131.9507376187037</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="E6" t="n">
-        <v>87.37278572049297</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="F6" t="n">
-        <v>42.79483382228227</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G6" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H6" t="n">
         <v>4.284706443124001</v>
@@ -4647,19 +4647,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
         <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
         <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
         <v>176.5286895169144</v>
@@ -4683,13 +4683,13 @@
         <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>48.8626583413347</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>93.48491238239833</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
         <v>3.530573790338288</v>
@@ -4741,34 +4741,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C8" t="n">
-        <v>121.8591222504766</v>
+        <v>152.7217401063189</v>
       </c>
       <c r="D8" t="n">
-        <v>121.8591222504766</v>
+        <v>108.1437882081082</v>
       </c>
       <c r="E8" t="n">
-        <v>121.8591222504766</v>
+        <v>63.56583630989752</v>
       </c>
       <c r="F8" t="n">
-        <v>77.28117035226589</v>
+        <v>18.98788441168682</v>
       </c>
       <c r="G8" t="n">
-        <v>32.70321845405519</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>32.70321845405519</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
         <v>176.5286895169144</v>
@@ -4826,28 +4826,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U8" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V8" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W8" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X8" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
         <v>3.530573790338288</v>
@@ -4890,16 +4890,16 @@
         <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
         <v>176.5286895169144</v>
@@ -4908,25 +4908,25 @@
         <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>87.37278572049297</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>42.79483382228227</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U9" t="n">
-        <v>4.284706443124001</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V9" t="n">
-        <v>4.284706443124001</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W9" t="n">
-        <v>4.284706443124001</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C10" t="n">
-        <v>93.48491238239833</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D10" t="n">
-        <v>48.90696048418764</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E10" t="n">
+        <v>92.68647758675968</v>
+      </c>
+      <c r="F10" t="n">
         <v>48.10852568854899</v>
       </c>
-      <c r="F10" t="n">
-        <v>3.530573790338288</v>
-      </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I10" t="n">
         <v>3.530573790338288</v>
@@ -5005,7 +5005,7 @@
         <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1930.384896374316</v>
+        <v>1930.384896374317</v>
       </c>
       <c r="C11" t="n">
-        <v>1635.800827228493</v>
+        <v>1635.800827228494</v>
       </c>
       <c r="D11" t="n">
-        <v>1351.913576416331</v>
+        <v>1351.913576416332</v>
       </c>
       <c r="E11" t="n">
         <v>1040.503771612676</v>
       </c>
       <c r="F11" t="n">
-        <v>703.8963146176566</v>
+        <v>703.8963146176567</v>
       </c>
       <c r="G11" t="n">
-        <v>361.263546416288</v>
+        <v>361.2635464162881</v>
       </c>
       <c r="H11" t="n">
         <v>118.2030081509792</v>
       </c>
       <c r="I11" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J11" t="n">
-        <v>270.8492913005773</v>
+        <v>270.8492913005778</v>
       </c>
       <c r="K11" t="n">
-        <v>683.8620419729843</v>
+        <v>683.8620419729848</v>
       </c>
       <c r="L11" t="n">
         <v>1248.517507809959</v>
@@ -5054,37 +5054,37 @@
         <v>2534.109675632578</v>
       </c>
       <c r="O11" t="n">
-        <v>3093.914631515479</v>
+        <v>3093.914631515478</v>
       </c>
       <c r="P11" t="n">
         <v>3534.020826908607</v>
       </c>
       <c r="Q11" t="n">
-        <v>3787.300491214508</v>
+        <v>3787.300491214507</v>
       </c>
       <c r="R11" t="n">
         <v>3792.014355083931</v>
       </c>
       <c r="S11" t="n">
-        <v>3711.922507804888</v>
+        <v>3711.922507804887</v>
       </c>
       <c r="T11" t="n">
         <v>3571.836260514924</v>
       </c>
       <c r="U11" t="n">
-        <v>3392.529130316072</v>
+        <v>3392.529130316073</v>
       </c>
       <c r="V11" t="n">
-        <v>3135.84469076709</v>
+        <v>3135.844690767091</v>
       </c>
       <c r="W11" t="n">
-        <v>2857.454483291564</v>
+        <v>2857.454483291565</v>
       </c>
       <c r="X11" t="n">
-        <v>2558.367172825073</v>
+        <v>2558.367172825074</v>
       </c>
       <c r="Y11" t="n">
-        <v>2242.606288643849</v>
+        <v>2242.60628864385</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>120.3346816835237</v>
       </c>
       <c r="I12" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J12" t="n">
-        <v>198.2929343741185</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="K12" t="n">
-        <v>534.2048556482257</v>
+        <v>149.9316237333329</v>
       </c>
       <c r="L12" t="n">
-        <v>1047.28428419391</v>
+        <v>663.0110522790167</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.954985441323</v>
+        <v>1266.009819236195</v>
       </c>
       <c r="N12" t="n">
-        <v>1446.054350683717</v>
+        <v>1949.658135078706</v>
       </c>
       <c r="O12" t="n">
-        <v>1985.392448471888</v>
+        <v>2508.647104283917</v>
       </c>
       <c r="P12" t="n">
-        <v>2417.027309919716</v>
+        <v>2625.003824778207</v>
       </c>
       <c r="Q12" t="n">
         <v>2652.866014583963</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>615.0476368920001</v>
+        <v>426.2958493161348</v>
       </c>
       <c r="C13" t="n">
-        <v>520.4899017586816</v>
+        <v>426.2958493161348</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7517101409342</v>
+        <v>350.5576576983876</v>
       </c>
       <c r="E13" t="n">
-        <v>371.2170643531296</v>
+        <v>277.0230119105829</v>
       </c>
       <c r="F13" t="n">
-        <v>298.7055646498076</v>
+        <v>204.511512207261</v>
       </c>
       <c r="G13" t="n">
-        <v>204.5115122072611</v>
+        <v>204.511512207261</v>
       </c>
       <c r="H13" t="n">
         <v>124.9406731070425</v>
       </c>
       <c r="I13" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5995746994443</v>
+        <v>133.5995746994445</v>
       </c>
       <c r="K13" t="n">
-        <v>311.4566527827139</v>
+        <v>311.4566527827143</v>
       </c>
       <c r="L13" t="n">
-        <v>574.1924826240995</v>
+        <v>574.1924826240997</v>
       </c>
       <c r="M13" t="n">
-        <v>857.6369628436793</v>
+        <v>857.6369628436794</v>
       </c>
       <c r="N13" t="n">
         <v>1141.509742310038</v>
@@ -5218,31 +5218,31 @@
         <v>1595.67790237581</v>
       </c>
       <c r="Q13" t="n">
-        <v>1674.813213890315</v>
+        <v>1674.813213890314</v>
       </c>
       <c r="R13" t="n">
-        <v>1674.813213890315</v>
+        <v>1620.257966040344</v>
       </c>
       <c r="S13" t="n">
-        <v>1542.349912566966</v>
+        <v>1487.794664716996</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.349912566966</v>
+        <v>1336.690661648644</v>
       </c>
       <c r="U13" t="n">
-        <v>1327.578057290188</v>
+        <v>1121.918806371866</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.272016878889</v>
+        <v>941.6127659605672</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.342888380022</v>
+        <v>726.5740437181951</v>
       </c>
       <c r="X13" t="n">
-        <v>868.7317852765932</v>
+        <v>572.9629406147661</v>
       </c>
       <c r="Y13" t="n">
-        <v>722.3176539276515</v>
+        <v>426.5488092658245</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>703.8963146176568</v>
       </c>
       <c r="G14" t="n">
-        <v>361.2635464162882</v>
+        <v>361.2635464162881</v>
       </c>
       <c r="H14" t="n">
         <v>118.2030081509793</v>
       </c>
       <c r="I14" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J14" t="n">
-        <v>270.849291300578</v>
+        <v>270.8492913005775</v>
       </c>
       <c r="K14" t="n">
-        <v>683.862041972985</v>
+        <v>683.8620419729847</v>
       </c>
       <c r="L14" t="n">
-        <v>1248.51750780996</v>
+        <v>1248.517507809959</v>
       </c>
       <c r="M14" t="n">
         <v>1893.41205648713</v>
@@ -5291,13 +5291,13 @@
         <v>2534.109675632578</v>
       </c>
       <c r="O14" t="n">
-        <v>3093.914631515479</v>
+        <v>3093.914631515478</v>
       </c>
       <c r="P14" t="n">
-        <v>3534.020826908607</v>
+        <v>3534.020826908606</v>
       </c>
       <c r="Q14" t="n">
-        <v>3787.300491214508</v>
+        <v>3787.300491214507</v>
       </c>
       <c r="R14" t="n">
         <v>3792.014355083931</v>
@@ -5312,16 +5312,16 @@
         <v>3392.529130316073</v>
       </c>
       <c r="V14" t="n">
-        <v>3135.84469076709</v>
+        <v>3135.844690767091</v>
       </c>
       <c r="W14" t="n">
-        <v>2857.454483291565</v>
+        <v>2857.454483291566</v>
       </c>
       <c r="X14" t="n">
         <v>2558.367172825074</v>
       </c>
       <c r="Y14" t="n">
-        <v>2242.60628864385</v>
+        <v>2242.606288643851</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>120.3346816835237</v>
       </c>
       <c r="I15" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J15" t="n">
-        <v>198.2929343741185</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="K15" t="n">
-        <v>534.2048556482256</v>
+        <v>411.7522083757857</v>
       </c>
       <c r="L15" t="n">
-        <v>680.1523423434849</v>
+        <v>924.8316369214696</v>
       </c>
       <c r="M15" t="n">
-        <v>869.8230435908984</v>
+        <v>1575.550351281383</v>
       </c>
       <c r="N15" t="n">
-        <v>1426.403479266678</v>
+        <v>2259.198667123895</v>
       </c>
       <c r="O15" t="n">
-        <v>1985.392448471888</v>
+        <v>2428.263940245143</v>
       </c>
       <c r="P15" t="n">
-        <v>2417.027309919716</v>
+        <v>2625.003824778207</v>
       </c>
       <c r="Q15" t="n">
         <v>2652.866014583963</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.0476368919999</v>
+        <v>319.2787922301724</v>
       </c>
       <c r="C16" t="n">
-        <v>520.4899017586814</v>
+        <v>224.7210570968538</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7517101409342</v>
+        <v>197.4521728103645</v>
       </c>
       <c r="E16" t="n">
-        <v>371.2170643531295</v>
+        <v>197.4521728103645</v>
       </c>
       <c r="F16" t="n">
-        <v>298.7055646498076</v>
+        <v>124.9406731070426</v>
       </c>
       <c r="G16" t="n">
-        <v>204.511512207261</v>
+        <v>124.9406731070426</v>
       </c>
       <c r="H16" t="n">
-        <v>124.9406731070425</v>
+        <v>124.9406731070426</v>
       </c>
       <c r="I16" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J16" t="n">
-        <v>133.5995746994444</v>
+        <v>133.5995746994442</v>
       </c>
       <c r="K16" t="n">
-        <v>311.4566527827142</v>
+        <v>311.4566527827138</v>
       </c>
       <c r="L16" t="n">
-        <v>574.1924826240997</v>
+        <v>574.1924826240993</v>
       </c>
       <c r="M16" t="n">
-        <v>857.6369628436793</v>
+        <v>857.6369628436792</v>
       </c>
       <c r="N16" t="n">
         <v>1141.509742310038</v>
@@ -5452,7 +5452,7 @@
         <v>1393.260827065325</v>
       </c>
       <c r="P16" t="n">
-        <v>1595.67790237581</v>
+        <v>1595.677902375809</v>
       </c>
       <c r="Q16" t="n">
         <v>1674.813213890314</v>
@@ -5464,22 +5464,22 @@
         <v>1487.794664716996</v>
       </c>
       <c r="T16" t="n">
-        <v>1336.690661648644</v>
+        <v>1336.690661648643</v>
       </c>
       <c r="U16" t="n">
-        <v>1121.918806371866</v>
+        <v>1121.918806371865</v>
       </c>
       <c r="V16" t="n">
-        <v>1083.770507518965</v>
+        <v>941.6127659605668</v>
       </c>
       <c r="W16" t="n">
-        <v>868.7317852765929</v>
+        <v>726.5740437181946</v>
       </c>
       <c r="X16" t="n">
-        <v>868.7317852765929</v>
+        <v>572.9629406147657</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.3176539276512</v>
+        <v>426.5488092658237</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1930.384896374316</v>
+        <v>1930.384896374317</v>
       </c>
       <c r="C17" t="n">
-        <v>1635.800827228493</v>
+        <v>1635.800827228494</v>
       </c>
       <c r="D17" t="n">
         <v>1351.913576416332</v>
@@ -5501,16 +5501,16 @@
         <v>1040.503771612676</v>
       </c>
       <c r="F17" t="n">
-        <v>703.8963146176571</v>
+        <v>703.896314617657</v>
       </c>
       <c r="G17" t="n">
-        <v>361.2635464162886</v>
+        <v>361.263546416288</v>
       </c>
       <c r="H17" t="n">
         <v>118.2030081509792</v>
       </c>
       <c r="I17" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J17" t="n">
         <v>270.8492913005775</v>
@@ -5543,22 +5543,22 @@
         <v>3711.922507804888</v>
       </c>
       <c r="T17" t="n">
-        <v>3571.836260514925</v>
+        <v>3571.836260514924</v>
       </c>
       <c r="U17" t="n">
         <v>3392.529130316073</v>
       </c>
       <c r="V17" t="n">
-        <v>3135.84469076709</v>
+        <v>3135.844690767091</v>
       </c>
       <c r="W17" t="n">
-        <v>2857.454483291564</v>
+        <v>2857.454483291565</v>
       </c>
       <c r="X17" t="n">
-        <v>2558.367172825073</v>
+        <v>2558.367172825074</v>
       </c>
       <c r="Y17" t="n">
-        <v>2242.606288643849</v>
+        <v>2242.60628864385</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5589,19 @@
         <v>120.3346816835237</v>
       </c>
       <c r="I18" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J18" t="n">
-        <v>75.84028710167863</v>
+        <v>178.6420629570798</v>
       </c>
       <c r="K18" t="n">
-        <v>411.7522083757857</v>
+        <v>514.5539842311869</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8316369214696</v>
+        <v>1027.633412776871</v>
       </c>
       <c r="M18" t="n">
-        <v>1114.502338168883</v>
+        <v>1217.304114024284</v>
       </c>
       <c r="N18" t="n">
         <v>1426.403479266678</v>
@@ -5647,58 +5647,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>319.278792230174</v>
+        <v>472.8898953336028</v>
       </c>
       <c r="C19" t="n">
-        <v>224.7210570968553</v>
+        <v>378.3321602002843</v>
       </c>
       <c r="D19" t="n">
-        <v>224.7210570968553</v>
+        <v>371.2170643531294</v>
       </c>
       <c r="E19" t="n">
-        <v>151.1864113090507</v>
+        <v>371.2170643531294</v>
       </c>
       <c r="F19" t="n">
-        <v>151.1864113090507</v>
+        <v>298.7055646498075</v>
       </c>
       <c r="G19" t="n">
-        <v>151.1864113090507</v>
+        <v>204.511512207261</v>
       </c>
       <c r="H19" t="n">
         <v>124.9406731070425</v>
       </c>
       <c r="I19" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J19" t="n">
-        <v>133.5995746994443</v>
+        <v>133.599574699444</v>
       </c>
       <c r="K19" t="n">
-        <v>311.4566527827142</v>
+        <v>311.4566527827139</v>
       </c>
       <c r="L19" t="n">
-        <v>574.1924826240997</v>
+        <v>574.1924826240994</v>
       </c>
       <c r="M19" t="n">
-        <v>857.6369628436797</v>
+        <v>857.636962843679</v>
       </c>
       <c r="N19" t="n">
-        <v>1141.509742310039</v>
+        <v>1141.509742310038</v>
       </c>
       <c r="O19" t="n">
-        <v>1393.260827065326</v>
+        <v>1393.260827065325</v>
       </c>
       <c r="P19" t="n">
-        <v>1595.677902375811</v>
+        <v>1595.67790237581</v>
       </c>
       <c r="Q19" t="n">
-        <v>1674.813213890315</v>
+        <v>1674.813213890314</v>
       </c>
       <c r="R19" t="n">
-        <v>1620.257966040345</v>
+        <v>1620.257966040344</v>
       </c>
       <c r="S19" t="n">
-        <v>1487.794664716997</v>
+        <v>1487.794664716996</v>
       </c>
       <c r="T19" t="n">
         <v>1336.690661648644</v>
@@ -5707,16 +5707,16 @@
         <v>1121.918806371866</v>
       </c>
       <c r="V19" t="n">
-        <v>941.6127659605678</v>
+        <v>941.6127659605676</v>
       </c>
       <c r="W19" t="n">
-        <v>726.5740437181955</v>
+        <v>726.5740437181956</v>
       </c>
       <c r="X19" t="n">
-        <v>572.9629406147667</v>
+        <v>726.5740437181956</v>
       </c>
       <c r="Y19" t="n">
-        <v>426.548809265825</v>
+        <v>580.159912369254</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1930.384896374317</v>
+        <v>1930.384896374316</v>
       </c>
       <c r="C20" t="n">
-        <v>1635.800827228494</v>
+        <v>1635.800827228493</v>
       </c>
       <c r="D20" t="n">
-        <v>1351.913576416332</v>
+        <v>1351.913576416331</v>
       </c>
       <c r="E20" t="n">
-        <v>1040.503771612676</v>
+        <v>1040.503771612675</v>
       </c>
       <c r="F20" t="n">
-        <v>703.8963146176571</v>
+        <v>703.8963146176561</v>
       </c>
       <c r="G20" t="n">
-        <v>361.2635464162886</v>
+        <v>361.2635464162877</v>
       </c>
       <c r="H20" t="n">
-        <v>118.2030081509797</v>
+        <v>118.2030081509792</v>
       </c>
       <c r="I20" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J20" t="n">
         <v>270.8492913005775</v>
@@ -5762,13 +5762,13 @@
         <v>1893.41205648713</v>
       </c>
       <c r="N20" t="n">
-        <v>2534.109675632577</v>
+        <v>2534.109675632578</v>
       </c>
       <c r="O20" t="n">
         <v>3093.914631515478</v>
       </c>
       <c r="P20" t="n">
-        <v>3534.020826908606</v>
+        <v>3534.020826908607</v>
       </c>
       <c r="Q20" t="n">
         <v>3787.300491214507</v>
@@ -5780,22 +5780,22 @@
         <v>3711.922507804888</v>
       </c>
       <c r="T20" t="n">
-        <v>3571.836260514925</v>
+        <v>3571.836260514924</v>
       </c>
       <c r="U20" t="n">
-        <v>3392.529130316073</v>
+        <v>3392.529130316072</v>
       </c>
       <c r="V20" t="n">
-        <v>3135.844690767091</v>
+        <v>3135.84469076709</v>
       </c>
       <c r="W20" t="n">
-        <v>2857.454483291566</v>
+        <v>2857.454483291565</v>
       </c>
       <c r="X20" t="n">
-        <v>2558.367172825074</v>
+        <v>2558.367172825073</v>
       </c>
       <c r="Y20" t="n">
-        <v>2242.606288643851</v>
+        <v>2242.60628864385</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>120.3346816835237</v>
       </c>
       <c r="I21" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J21" t="n">
-        <v>75.84028710167863</v>
+        <v>198.2929343741185</v>
       </c>
       <c r="K21" t="n">
-        <v>411.7522083757857</v>
+        <v>534.2048556482256</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8316369214696</v>
+        <v>1047.28428419391</v>
       </c>
       <c r="M21" t="n">
-        <v>1114.502338168883</v>
+        <v>1236.954985441323</v>
       </c>
       <c r="N21" t="n">
-        <v>1426.403479266678</v>
+        <v>1446.054350683717</v>
       </c>
       <c r="O21" t="n">
         <v>1985.392448471888</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>520.4899017586814</v>
+        <v>615.0476368920002</v>
       </c>
       <c r="C22" t="n">
-        <v>520.4899017586814</v>
+        <v>520.4899017586818</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7517101409341</v>
+        <v>444.7517101409344</v>
       </c>
       <c r="E22" t="n">
-        <v>371.2170643531294</v>
+        <v>371.2170643531297</v>
       </c>
       <c r="F22" t="n">
-        <v>298.7055646498075</v>
+        <v>298.7055646498077</v>
       </c>
       <c r="G22" t="n">
-        <v>204.511512207261</v>
+        <v>204.5115122072611</v>
       </c>
       <c r="H22" t="n">
         <v>124.9406731070425</v>
       </c>
       <c r="I22" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J22" t="n">
         <v>133.5995746994442</v>
@@ -5932,28 +5932,28 @@
         <v>1674.813213890314</v>
       </c>
       <c r="R22" t="n">
-        <v>1620.257966040345</v>
+        <v>1637.149378029881</v>
       </c>
       <c r="S22" t="n">
-        <v>1487.794664716996</v>
+        <v>1637.149378029881</v>
       </c>
       <c r="T22" t="n">
-        <v>1336.690661648644</v>
+        <v>1486.045374961529</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.918806371866</v>
+        <v>1271.273519684751</v>
       </c>
       <c r="V22" t="n">
-        <v>941.6127659605677</v>
+        <v>1090.967479273453</v>
       </c>
       <c r="W22" t="n">
-        <v>927.7851532467032</v>
+        <v>875.9287570310804</v>
       </c>
       <c r="X22" t="n">
-        <v>774.1740501432744</v>
+        <v>722.3176539276516</v>
       </c>
       <c r="Y22" t="n">
-        <v>627.7599187943327</v>
+        <v>722.3176539276516</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1930.384896374317</v>
+        <v>1930.384896374316</v>
       </c>
       <c r="C23" t="n">
-        <v>1635.800827228494</v>
+        <v>1635.800827228493</v>
       </c>
       <c r="D23" t="n">
-        <v>1351.913576416332</v>
+        <v>1351.91357641633</v>
       </c>
       <c r="E23" t="n">
-        <v>1040.503771612676</v>
+        <v>1040.503771612675</v>
       </c>
       <c r="F23" t="n">
-        <v>703.8963146176566</v>
+        <v>703.8963146176554</v>
       </c>
       <c r="G23" t="n">
-        <v>361.263546416288</v>
+        <v>361.2635464162868</v>
       </c>
       <c r="H23" t="n">
-        <v>118.2030081509792</v>
+        <v>118.2030081509793</v>
       </c>
       <c r="I23" t="n">
         <v>75.84028710167861</v>
@@ -5990,7 +5990,7 @@
         <v>270.8492913005775</v>
       </c>
       <c r="K23" t="n">
-        <v>683.8620419729847</v>
+        <v>683.8620419729846</v>
       </c>
       <c r="L23" t="n">
         <v>1248.517507809959</v>
@@ -5999,7 +5999,7 @@
         <v>1893.41205648713</v>
       </c>
       <c r="N23" t="n">
-        <v>2534.109675632578</v>
+        <v>2534.109675632577</v>
       </c>
       <c r="O23" t="n">
         <v>3093.914631515478</v>
@@ -6017,22 +6017,22 @@
         <v>3711.922507804888</v>
       </c>
       <c r="T23" t="n">
-        <v>3571.836260514925</v>
+        <v>3571.836260514924</v>
       </c>
       <c r="U23" t="n">
-        <v>3392.529130316073</v>
+        <v>3392.529130316072</v>
       </c>
       <c r="V23" t="n">
-        <v>3135.844690767091</v>
+        <v>3135.84469076709</v>
       </c>
       <c r="W23" t="n">
-        <v>2857.454483291565</v>
+        <v>2857.454483291564</v>
       </c>
       <c r="X23" t="n">
-        <v>2558.367172825074</v>
+        <v>2558.367172825073</v>
       </c>
       <c r="Y23" t="n">
-        <v>2242.60628864385</v>
+        <v>2242.606288643849</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>75.84028710167861</v>
       </c>
       <c r="J24" t="n">
-        <v>178.6420629570798</v>
+        <v>198.2929343741185</v>
       </c>
       <c r="K24" t="n">
-        <v>514.5539842311869</v>
+        <v>534.2048556482256</v>
       </c>
       <c r="L24" t="n">
-        <v>1027.633412776871</v>
+        <v>1047.28428419391</v>
       </c>
       <c r="M24" t="n">
-        <v>1217.304114024284</v>
+        <v>1236.954985441323</v>
       </c>
       <c r="N24" t="n">
-        <v>1426.403479266678</v>
+        <v>1446.054350683717</v>
       </c>
       <c r="O24" t="n">
         <v>1985.392448471888</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.8340400801433</v>
+        <v>373.8340400801423</v>
       </c>
       <c r="C25" t="n">
-        <v>279.2763049468248</v>
+        <v>373.8340400801423</v>
       </c>
       <c r="D25" t="n">
-        <v>279.2763049468248</v>
+        <v>298.095848462395</v>
       </c>
       <c r="E25" t="n">
-        <v>279.2763049468248</v>
+        <v>298.095848462395</v>
       </c>
       <c r="F25" t="n">
-        <v>279.2763049468248</v>
+        <v>225.5843487590731</v>
       </c>
       <c r="G25" t="n">
-        <v>185.0822525042783</v>
+        <v>204.5115122072611</v>
       </c>
       <c r="H25" t="n">
-        <v>105.5114134040596</v>
+        <v>124.9406731070425</v>
       </c>
       <c r="I25" t="n">
         <v>75.84028710167861</v>
@@ -6148,13 +6148,13 @@
         <v>133.5995746994443</v>
       </c>
       <c r="K25" t="n">
-        <v>311.4566527827141</v>
+        <v>311.456652782714</v>
       </c>
       <c r="L25" t="n">
-        <v>574.1924826240996</v>
+        <v>574.1924826240995</v>
       </c>
       <c r="M25" t="n">
-        <v>857.6369628436794</v>
+        <v>857.6369628436792</v>
       </c>
       <c r="N25" t="n">
         <v>1141.509742310038</v>
@@ -6172,25 +6172,25 @@
         <v>1674.813213890314</v>
       </c>
       <c r="S25" t="n">
-        <v>1542.349912566966</v>
+        <v>1542.349912566965</v>
       </c>
       <c r="T25" t="n">
-        <v>1391.245909498614</v>
+        <v>1391.245909498613</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.474054221836</v>
+        <v>1176.474054221835</v>
       </c>
       <c r="V25" t="n">
-        <v>996.1680138105371</v>
+        <v>996.1680138105364</v>
       </c>
       <c r="W25" t="n">
-        <v>781.1292915681649</v>
+        <v>781.1292915681643</v>
       </c>
       <c r="X25" t="n">
-        <v>627.5181884647361</v>
+        <v>627.5181884647353</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.1040571157945</v>
+        <v>481.1040571157936</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1930.384896374317</v>
+        <v>1930.384896374318</v>
       </c>
       <c r="C26" t="n">
         <v>1635.800827228494</v>
@@ -6212,22 +6212,22 @@
         <v>1040.503771612676</v>
       </c>
       <c r="F26" t="n">
-        <v>703.8963146176567</v>
+        <v>703.8963146176566</v>
       </c>
       <c r="G26" t="n">
-        <v>361.2635464162881</v>
+        <v>361.263546416288</v>
       </c>
       <c r="H26" t="n">
         <v>118.2030081509792</v>
       </c>
       <c r="I26" t="n">
-        <v>75.84028710167861</v>
+        <v>75.84028710167863</v>
       </c>
       <c r="J26" t="n">
-        <v>270.8492913005776</v>
+        <v>270.849291300578</v>
       </c>
       <c r="K26" t="n">
-        <v>683.8620419729847</v>
+        <v>683.862041972985</v>
       </c>
       <c r="L26" t="n">
         <v>1248.517507809959</v>
@@ -6239,13 +6239,13 @@
         <v>2534.109675632578</v>
       </c>
       <c r="O26" t="n">
-        <v>3093.914631515478</v>
+        <v>3093.914631515479</v>
       </c>
       <c r="P26" t="n">
         <v>3534.020826908607</v>
       </c>
       <c r="Q26" t="n">
-        <v>3787.300491214507</v>
+        <v>3787.300491214508</v>
       </c>
       <c r="R26" t="n">
         <v>3792.014355083931</v>
@@ -6254,22 +6254,22 @@
         <v>3711.922507804888</v>
       </c>
       <c r="T26" t="n">
-        <v>3571.836260514924</v>
+        <v>3571.836260514925</v>
       </c>
       <c r="U26" t="n">
-        <v>3392.529130316073</v>
+        <v>3392.529130316074</v>
       </c>
       <c r="V26" t="n">
-        <v>3135.84469076709</v>
+        <v>3135.844690767092</v>
       </c>
       <c r="W26" t="n">
-        <v>2857.454483291565</v>
+        <v>2857.454483291566</v>
       </c>
       <c r="X26" t="n">
-        <v>2558.367172825074</v>
+        <v>2558.367172825075</v>
       </c>
       <c r="Y26" t="n">
-        <v>2242.60628864385</v>
+        <v>2242.606288643851</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>120.3346816835237</v>
       </c>
       <c r="I27" t="n">
-        <v>75.84028710167861</v>
+        <v>75.84028710167863</v>
       </c>
       <c r="J27" t="n">
-        <v>75.84028710167861</v>
+        <v>198.2929343741185</v>
       </c>
       <c r="K27" t="n">
-        <v>411.7522083757857</v>
+        <v>514.5539842311869</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8316369214696</v>
+        <v>1027.633412776871</v>
       </c>
       <c r="M27" t="n">
-        <v>1114.502338168883</v>
+        <v>1217.304114024284</v>
       </c>
       <c r="N27" t="n">
         <v>1426.403479266678</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>451.7420935535209</v>
+        <v>520.4899017586815</v>
       </c>
       <c r="C28" t="n">
-        <v>357.1843584202024</v>
+        <v>520.4899017586815</v>
       </c>
       <c r="D28" t="n">
-        <v>281.4461668024551</v>
+        <v>444.7517101409343</v>
       </c>
       <c r="E28" t="n">
-        <v>207.9115210146505</v>
+        <v>371.2170643531296</v>
       </c>
       <c r="F28" t="n">
-        <v>204.5115122072611</v>
+        <v>298.7055646498077</v>
       </c>
       <c r="G28" t="n">
         <v>204.5115122072611</v>
@@ -6379,13 +6379,13 @@
         <v>124.9406731070425</v>
       </c>
       <c r="I28" t="n">
-        <v>75.84028710167861</v>
+        <v>75.84028710167863</v>
       </c>
       <c r="J28" t="n">
-        <v>133.5995746994443</v>
+        <v>133.599574699444</v>
       </c>
       <c r="K28" t="n">
-        <v>311.4566527827141</v>
+        <v>311.4566527827138</v>
       </c>
       <c r="L28" t="n">
         <v>574.1924826240993</v>
@@ -6409,25 +6409,25 @@
         <v>1620.257966040344</v>
       </c>
       <c r="S28" t="n">
-        <v>1620.257966040344</v>
+        <v>1487.794664716996</v>
       </c>
       <c r="T28" t="n">
-        <v>1469.153962971992</v>
+        <v>1336.690661648644</v>
       </c>
       <c r="U28" t="n">
-        <v>1254.382107695214</v>
+        <v>1121.918806371865</v>
       </c>
       <c r="V28" t="n">
-        <v>1074.076067283915</v>
+        <v>941.612765960567</v>
       </c>
       <c r="W28" t="n">
-        <v>859.0373450415428</v>
+        <v>927.7851532467034</v>
       </c>
       <c r="X28" t="n">
-        <v>705.4262419381139</v>
+        <v>774.1740501432746</v>
       </c>
       <c r="Y28" t="n">
-        <v>559.0121105891722</v>
+        <v>627.7599187943329</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1930.384896374317</v>
+        <v>1930.384896374318</v>
       </c>
       <c r="C29" t="n">
-        <v>1635.800827228494</v>
+        <v>1635.800827228495</v>
       </c>
       <c r="D29" t="n">
         <v>1351.913576416332</v>
       </c>
       <c r="E29" t="n">
-        <v>1040.503771612676</v>
+        <v>1040.503771612677</v>
       </c>
       <c r="F29" t="n">
-        <v>703.8963146176567</v>
+        <v>703.8963146176576</v>
       </c>
       <c r="G29" t="n">
-        <v>361.2635464162881</v>
+        <v>361.263546416289</v>
       </c>
       <c r="H29" t="n">
-        <v>118.2030081509793</v>
+        <v>118.2030081509792</v>
       </c>
       <c r="I29" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J29" t="n">
-        <v>270.849291300578</v>
+        <v>270.8492913005776</v>
       </c>
       <c r="K29" t="n">
-        <v>683.8620419729851</v>
+        <v>683.8620419729847</v>
       </c>
       <c r="L29" t="n">
         <v>1248.517507809959</v>
@@ -6476,13 +6476,13 @@
         <v>2534.109675632578</v>
       </c>
       <c r="O29" t="n">
-        <v>3093.914631515479</v>
+        <v>3093.914631515478</v>
       </c>
       <c r="P29" t="n">
         <v>3534.020826908607</v>
       </c>
       <c r="Q29" t="n">
-        <v>3787.300491214508</v>
+        <v>3787.300491214507</v>
       </c>
       <c r="R29" t="n">
         <v>3792.014355083931</v>
@@ -6491,22 +6491,22 @@
         <v>3711.922507804888</v>
       </c>
       <c r="T29" t="n">
-        <v>3571.836260514924</v>
+        <v>3571.836260514925</v>
       </c>
       <c r="U29" t="n">
-        <v>3392.529130316072</v>
+        <v>3392.529130316074</v>
       </c>
       <c r="V29" t="n">
-        <v>3135.84469076709</v>
+        <v>3135.844690767091</v>
       </c>
       <c r="W29" t="n">
-        <v>2857.454483291565</v>
+        <v>2857.454483291566</v>
       </c>
       <c r="X29" t="n">
-        <v>2558.367172825074</v>
+        <v>2558.367172825075</v>
       </c>
       <c r="Y29" t="n">
-        <v>2242.60628864385</v>
+        <v>2242.606288643851</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>120.3346816835237</v>
       </c>
       <c r="I30" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J30" t="n">
-        <v>178.6420629570798</v>
+        <v>198.2929343741185</v>
       </c>
       <c r="K30" t="n">
-        <v>514.5539842311869</v>
+        <v>534.2048556482256</v>
       </c>
       <c r="L30" t="n">
-        <v>1027.633412776871</v>
+        <v>1047.28428419391</v>
       </c>
       <c r="M30" t="n">
-        <v>1217.304114024284</v>
+        <v>1236.954985441323</v>
       </c>
       <c r="N30" t="n">
-        <v>1426.403479266678</v>
+        <v>1446.054350683717</v>
       </c>
       <c r="O30" t="n">
         <v>1985.392448471888</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>465.6929235791144</v>
+        <v>397.8548699655128</v>
       </c>
       <c r="C31" t="n">
-        <v>371.135188445796</v>
+        <v>397.8548699655128</v>
       </c>
       <c r="D31" t="n">
-        <v>295.3969968280487</v>
+        <v>322.1166783477655</v>
       </c>
       <c r="E31" t="n">
-        <v>221.862351040244</v>
+        <v>322.1166783477655</v>
       </c>
       <c r="F31" t="n">
-        <v>204.5115122072611</v>
+        <v>249.6051786444436</v>
       </c>
       <c r="G31" t="n">
-        <v>204.5115122072611</v>
+        <v>155.4111262018971</v>
       </c>
       <c r="H31" t="n">
-        <v>124.9406731070425</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="I31" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J31" t="n">
         <v>133.5995746994443</v>
       </c>
       <c r="K31" t="n">
-        <v>311.4566527827141</v>
+        <v>311.4566527827142</v>
       </c>
       <c r="L31" t="n">
-        <v>574.1924826240996</v>
+        <v>574.1924826240997</v>
       </c>
       <c r="M31" t="n">
-        <v>857.6369628436793</v>
+        <v>857.6369628436795</v>
       </c>
       <c r="N31" t="n">
         <v>1141.509742310038</v>
@@ -6643,28 +6643,28 @@
         <v>1674.813213890314</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.257966040344</v>
+        <v>1620.257966040345</v>
       </c>
       <c r="S31" t="n">
-        <v>1487.794664716996</v>
+        <v>1487.794664716997</v>
       </c>
       <c r="T31" t="n">
         <v>1336.690661648644</v>
       </c>
       <c r="U31" t="n">
-        <v>1121.918806371865</v>
+        <v>1121.918806371866</v>
       </c>
       <c r="V31" t="n">
-        <v>941.6127659605668</v>
+        <v>941.6127659605677</v>
       </c>
       <c r="W31" t="n">
-        <v>726.5740437181946</v>
+        <v>726.5740437181955</v>
       </c>
       <c r="X31" t="n">
-        <v>572.9629406147658</v>
+        <v>651.5390183501057</v>
       </c>
       <c r="Y31" t="n">
-        <v>572.9629406147658</v>
+        <v>505.1248870011641</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1040.503771612676</v>
       </c>
       <c r="F32" t="n">
-        <v>703.896314617657</v>
+        <v>703.8963146176571</v>
       </c>
       <c r="G32" t="n">
-        <v>361.2635464162884</v>
+        <v>361.2635464162886</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2030081509793</v>
+        <v>118.2030081509792</v>
       </c>
       <c r="I32" t="n">
         <v>75.84028710167863</v>
@@ -6731,7 +6731,7 @@
         <v>3571.836260514925</v>
       </c>
       <c r="U32" t="n">
-        <v>3392.529130316074</v>
+        <v>3392.529130316073</v>
       </c>
       <c r="V32" t="n">
         <v>3135.844690767091</v>
@@ -6740,7 +6740,7 @@
         <v>2857.454483291566</v>
       </c>
       <c r="X32" t="n">
-        <v>2558.367172825075</v>
+        <v>2558.367172825074</v>
       </c>
       <c r="Y32" t="n">
         <v>2242.606288643851</v>
@@ -6777,19 +6777,19 @@
         <v>75.84028710167863</v>
       </c>
       <c r="J33" t="n">
-        <v>178.6420629570798</v>
+        <v>198.2929343741185</v>
       </c>
       <c r="K33" t="n">
-        <v>514.5539842311869</v>
+        <v>534.2048556482256</v>
       </c>
       <c r="L33" t="n">
-        <v>1027.633412776871</v>
+        <v>1047.28428419391</v>
       </c>
       <c r="M33" t="n">
-        <v>1217.304114024284</v>
+        <v>1236.954985441323</v>
       </c>
       <c r="N33" t="n">
-        <v>1426.403479266678</v>
+        <v>1446.054350683717</v>
       </c>
       <c r="O33" t="n">
         <v>1985.392448471888</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>319.2787922301716</v>
+        <v>373.8340400801427</v>
       </c>
       <c r="C34" t="n">
-        <v>319.2787922301716</v>
+        <v>373.8340400801427</v>
       </c>
       <c r="D34" t="n">
-        <v>319.2787922301716</v>
+        <v>298.0958484623954</v>
       </c>
       <c r="E34" t="n">
-        <v>245.7441464423668</v>
+        <v>224.5612026745907</v>
       </c>
       <c r="F34" t="n">
-        <v>245.7441464423668</v>
+        <v>152.049702971269</v>
       </c>
       <c r="G34" t="n">
-        <v>155.4111262018973</v>
+        <v>75.84028710167863</v>
       </c>
       <c r="H34" t="n">
         <v>75.84028710167863</v>
@@ -6856,16 +6856,16 @@
         <v>75.84028710167863</v>
       </c>
       <c r="J34" t="n">
-        <v>133.5995746994442</v>
+        <v>133.5995746994444</v>
       </c>
       <c r="K34" t="n">
-        <v>311.456652782714</v>
+        <v>311.4566527827142</v>
       </c>
       <c r="L34" t="n">
-        <v>574.1924826240994</v>
+        <v>574.1924826240995</v>
       </c>
       <c r="M34" t="n">
-        <v>857.6369628436789</v>
+        <v>857.6369628436793</v>
       </c>
       <c r="N34" t="n">
         <v>1141.509742310038</v>
@@ -6874,34 +6874,34 @@
         <v>1393.260827065325</v>
       </c>
       <c r="P34" t="n">
-        <v>1595.677902375809</v>
+        <v>1595.67790237581</v>
       </c>
       <c r="Q34" t="n">
-        <v>1674.813213890313</v>
+        <v>1674.813213890314</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.257966040344</v>
+        <v>1674.813213890314</v>
       </c>
       <c r="S34" t="n">
-        <v>1487.794664716995</v>
+        <v>1542.349912566966</v>
       </c>
       <c r="T34" t="n">
-        <v>1336.690661648643</v>
+        <v>1391.245909498613</v>
       </c>
       <c r="U34" t="n">
-        <v>1121.918806371865</v>
+        <v>1176.474054221835</v>
       </c>
       <c r="V34" t="n">
-        <v>941.612765960566</v>
+        <v>996.1680138105366</v>
       </c>
       <c r="W34" t="n">
-        <v>726.5740437181937</v>
+        <v>781.1292915681645</v>
       </c>
       <c r="X34" t="n">
-        <v>572.9629406147648</v>
+        <v>627.5181884647357</v>
       </c>
       <c r="Y34" t="n">
-        <v>426.5488092658229</v>
+        <v>481.104057115794</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1930.384896374316</v>
+        <v>1930.384896374317</v>
       </c>
       <c r="C35" t="n">
-        <v>1635.800827228493</v>
+        <v>1635.800827228494</v>
       </c>
       <c r="D35" t="n">
-        <v>1351.913576416331</v>
+        <v>1351.913576416332</v>
       </c>
       <c r="E35" t="n">
-        <v>1040.503771612675</v>
+        <v>1040.503771612676</v>
       </c>
       <c r="F35" t="n">
-        <v>703.8963146176567</v>
+        <v>703.8963146176566</v>
       </c>
       <c r="G35" t="n">
-        <v>361.2635464162881</v>
+        <v>361.2635464162876</v>
       </c>
       <c r="H35" t="n">
         <v>118.2030081509792</v>
       </c>
       <c r="I35" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J35" t="n">
         <v>270.8492913005775</v>
@@ -6956,7 +6956,7 @@
         <v>3534.020826908606</v>
       </c>
       <c r="Q35" t="n">
-        <v>3787.300491214508</v>
+        <v>3787.300491214507</v>
       </c>
       <c r="R35" t="n">
         <v>3792.014355083931</v>
@@ -6968,19 +6968,19 @@
         <v>3571.836260514925</v>
       </c>
       <c r="U35" t="n">
-        <v>3392.529130316073</v>
+        <v>3392.529130316072</v>
       </c>
       <c r="V35" t="n">
         <v>3135.84469076709</v>
       </c>
       <c r="W35" t="n">
-        <v>2857.454483291564</v>
+        <v>2857.454483291565</v>
       </c>
       <c r="X35" t="n">
         <v>2558.367172825073</v>
       </c>
       <c r="Y35" t="n">
-        <v>2242.606288643849</v>
+        <v>2242.60628864385</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>120.3346816835237</v>
       </c>
       <c r="I36" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J36" t="n">
         <v>198.2929343741185</v>
@@ -7020,19 +7020,19 @@
         <v>272.3842710057728</v>
       </c>
       <c r="L36" t="n">
-        <v>785.4636995514567</v>
+        <v>418.3317577010321</v>
       </c>
       <c r="M36" t="n">
-        <v>1436.18241391137</v>
+        <v>1069.050472060945</v>
       </c>
       <c r="N36" t="n">
-        <v>1741.681620220215</v>
+        <v>1752.698787903457</v>
       </c>
       <c r="O36" t="n">
-        <v>2300.670589425426</v>
+        <v>2311.687757108667</v>
       </c>
       <c r="P36" t="n">
-        <v>2417.027309919716</v>
+        <v>2428.044477602958</v>
       </c>
       <c r="Q36" t="n">
         <v>2652.866014583963</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>319.2787922301721</v>
+        <v>426.5488092658248</v>
       </c>
       <c r="C37" t="n">
-        <v>224.7210570968537</v>
+        <v>331.9910741325062</v>
       </c>
       <c r="D37" t="n">
-        <v>148.9828654791064</v>
+        <v>256.2528825147592</v>
       </c>
       <c r="E37" t="n">
-        <v>148.9828654791064</v>
+        <v>256.2528825147592</v>
       </c>
       <c r="F37" t="n">
-        <v>148.9828654791064</v>
+        <v>183.7413828114373</v>
       </c>
       <c r="G37" t="n">
-        <v>75.84028710167863</v>
+        <v>89.54733036889077</v>
       </c>
       <c r="H37" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="I37" t="n">
-        <v>75.84028710167863</v>
+        <v>75.84028710167861</v>
       </c>
       <c r="J37" t="n">
-        <v>133.5995746994443</v>
+        <v>133.5995746994441</v>
       </c>
       <c r="K37" t="n">
-        <v>311.4566527827141</v>
+        <v>311.4566527827139</v>
       </c>
       <c r="L37" t="n">
-        <v>574.1924826240997</v>
+        <v>574.1924826240994</v>
       </c>
       <c r="M37" t="n">
-        <v>857.6369628436794</v>
+        <v>857.6369628436789</v>
       </c>
       <c r="N37" t="n">
         <v>1141.509742310038</v>
@@ -7129,16 +7129,16 @@
         <v>1121.918806371866</v>
       </c>
       <c r="V37" t="n">
-        <v>941.6127659605672</v>
+        <v>941.6127659605675</v>
       </c>
       <c r="W37" t="n">
-        <v>726.5740437181951</v>
+        <v>726.5740437181953</v>
       </c>
       <c r="X37" t="n">
-        <v>572.9629406147661</v>
+        <v>572.9629406147665</v>
       </c>
       <c r="Y37" t="n">
-        <v>426.5488092658234</v>
+        <v>426.5488092658248</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1040.503771612676</v>
       </c>
       <c r="F38" t="n">
-        <v>703.8963146176566</v>
+        <v>703.8963146176567</v>
       </c>
       <c r="G38" t="n">
         <v>361.263546416288</v>
@@ -7172,28 +7172,28 @@
         <v>75.84028710167863</v>
       </c>
       <c r="J38" t="n">
-        <v>270.8492913005775</v>
+        <v>270.8492913005783</v>
       </c>
       <c r="K38" t="n">
-        <v>683.8620419729846</v>
+        <v>683.8620419729854</v>
       </c>
       <c r="L38" t="n">
-        <v>1248.517507809959</v>
+        <v>1248.51750780996</v>
       </c>
       <c r="M38" t="n">
         <v>1893.41205648713</v>
       </c>
       <c r="N38" t="n">
-        <v>2534.109675632577</v>
+        <v>2534.109675632578</v>
       </c>
       <c r="O38" t="n">
-        <v>3093.914631515478</v>
+        <v>3093.914631515479</v>
       </c>
       <c r="P38" t="n">
-        <v>3534.020826908606</v>
+        <v>3534.020826908607</v>
       </c>
       <c r="Q38" t="n">
-        <v>3787.300491214507</v>
+        <v>3787.300491214508</v>
       </c>
       <c r="R38" t="n">
         <v>3792.014355083931</v>
@@ -7208,13 +7208,13 @@
         <v>3392.529130316073</v>
       </c>
       <c r="V38" t="n">
-        <v>3135.84469076709</v>
+        <v>3135.844690767091</v>
       </c>
       <c r="W38" t="n">
         <v>2857.454483291565</v>
       </c>
       <c r="X38" t="n">
-        <v>2558.367172825073</v>
+        <v>2558.367172825074</v>
       </c>
       <c r="Y38" t="n">
         <v>2242.60628864385</v>
@@ -7251,25 +7251,25 @@
         <v>75.84028710167863</v>
       </c>
       <c r="J39" t="n">
-        <v>75.84028710167863</v>
+        <v>198.2929343741185</v>
       </c>
       <c r="K39" t="n">
-        <v>149.9316237333329</v>
+        <v>272.3842710057728</v>
       </c>
       <c r="L39" t="n">
-        <v>295.8791104285922</v>
+        <v>785.4636995514567</v>
       </c>
       <c r="M39" t="n">
-        <v>946.5978247885055</v>
+        <v>1436.18241391137</v>
       </c>
       <c r="N39" t="n">
-        <v>1630.246140631017</v>
+        <v>1645.281779153764</v>
       </c>
       <c r="O39" t="n">
-        <v>2189.235109836227</v>
+        <v>2204.270748358974</v>
       </c>
       <c r="P39" t="n">
-        <v>2620.869971284055</v>
+        <v>2417.027309919716</v>
       </c>
       <c r="Q39" t="n">
         <v>2652.866014583963</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>319.2787922301732</v>
+        <v>426.295849316135</v>
       </c>
       <c r="C40" t="n">
-        <v>319.2787922301732</v>
+        <v>426.295849316135</v>
       </c>
       <c r="D40" t="n">
-        <v>243.5406006124258</v>
+        <v>350.5576576983877</v>
       </c>
       <c r="E40" t="n">
-        <v>170.0059548246211</v>
+        <v>277.023011910583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.49445512129921</v>
+        <v>204.5115122072611</v>
       </c>
       <c r="G40" t="n">
-        <v>97.49445512129921</v>
+        <v>204.5115122072611</v>
       </c>
       <c r="H40" t="n">
-        <v>75.84028710167863</v>
+        <v>124.9406731070425</v>
       </c>
       <c r="I40" t="n">
         <v>75.84028710167863</v>
       </c>
       <c r="J40" t="n">
-        <v>133.5995746994442</v>
+        <v>133.5995746994443</v>
       </c>
       <c r="K40" t="n">
         <v>311.4566527827141</v>
       </c>
       <c r="L40" t="n">
-        <v>574.1924826240996</v>
+        <v>574.1924826240997</v>
       </c>
       <c r="M40" t="n">
         <v>857.6369628436795</v>
@@ -7354,28 +7354,28 @@
         <v>1674.813213890314</v>
       </c>
       <c r="R40" t="n">
-        <v>1620.257966040345</v>
+        <v>1674.813213890314</v>
       </c>
       <c r="S40" t="n">
-        <v>1487.794664716996</v>
+        <v>1542.349912566966</v>
       </c>
       <c r="T40" t="n">
-        <v>1336.690661648644</v>
+        <v>1391.245909498614</v>
       </c>
       <c r="U40" t="n">
-        <v>1121.918806371866</v>
+        <v>1176.474054221836</v>
       </c>
       <c r="V40" t="n">
-        <v>941.6127659605676</v>
+        <v>996.1680138105376</v>
       </c>
       <c r="W40" t="n">
-        <v>726.5740437181954</v>
+        <v>781.1292915681654</v>
       </c>
       <c r="X40" t="n">
-        <v>572.9629406147665</v>
+        <v>627.5181884647363</v>
       </c>
       <c r="Y40" t="n">
-        <v>426.5488092658246</v>
+        <v>533.5658663517863</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1997.84195801401</v>
+        <v>1920.464648663877</v>
       </c>
       <c r="C41" t="n">
-        <v>1658.371351336798</v>
+        <v>1580.994041986665</v>
       </c>
       <c r="D41" t="n">
-        <v>1329.597562993247</v>
+        <v>1252.220253643114</v>
       </c>
       <c r="E41" t="n">
-        <v>973.3012206582026</v>
+        <v>895.9239113080696</v>
       </c>
       <c r="F41" t="n">
-        <v>591.8072261317948</v>
+        <v>514.4299167816615</v>
       </c>
       <c r="G41" t="n">
-        <v>204.2879203990375</v>
+        <v>451.036621479066</v>
       </c>
       <c r="H41" t="n">
-        <v>75.84028710167863</v>
+        <v>163.0895456823682</v>
       </c>
       <c r="I41" t="n">
         <v>75.84028710167863</v>
       </c>
       <c r="J41" t="n">
-        <v>270.8492913005776</v>
+        <v>270.8492913005775</v>
       </c>
       <c r="K41" t="n">
-        <v>683.8620419729848</v>
+        <v>683.8620419729847</v>
       </c>
       <c r="L41" t="n">
         <v>1248.517507809959</v>
@@ -7430,7 +7430,7 @@
         <v>3534.020826908607</v>
       </c>
       <c r="Q41" t="n">
-        <v>3787.300491214507</v>
+        <v>3787.300491214508</v>
       </c>
       <c r="R41" t="n">
         <v>3792.014355083931</v>
@@ -7439,22 +7439,22 @@
         <v>3792.014355083931</v>
       </c>
       <c r="T41" t="n">
-        <v>3607.041570262579</v>
+        <v>3607.041570262578</v>
       </c>
       <c r="U41" t="n">
-        <v>3382.847902532339</v>
+        <v>3607.041570262578</v>
       </c>
       <c r="V41" t="n">
-        <v>3382.847902532339</v>
+        <v>3305.470593182207</v>
       </c>
       <c r="W41" t="n">
-        <v>3059.571157525424</v>
+        <v>2982.193848175292</v>
       </c>
       <c r="X41" t="n">
-        <v>2715.597309527544</v>
+        <v>2638.220000177412</v>
       </c>
       <c r="Y41" t="n">
-        <v>2354.949887814932</v>
+        <v>2277.572578464799</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>75.84028710167863</v>
       </c>
       <c r="J42" t="n">
-        <v>75.84028710167863</v>
+        <v>198.2929343741185</v>
       </c>
       <c r="K42" t="n">
-        <v>411.7522083757858</v>
+        <v>272.3842710057728</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8316369214697</v>
+        <v>418.3317577010321</v>
       </c>
       <c r="M42" t="n">
-        <v>1114.502338168883</v>
+        <v>1058.033304377703</v>
       </c>
       <c r="N42" t="n">
-        <v>1426.403479266678</v>
+        <v>1741.681620220215</v>
       </c>
       <c r="O42" t="n">
-        <v>1985.392448471888</v>
+        <v>2300.670589425426</v>
       </c>
       <c r="P42" t="n">
         <v>2417.027309919716</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>426.3944670008601</v>
+        <v>455.1361026654899</v>
       </c>
       <c r="C43" t="n">
-        <v>426.3944670008601</v>
+        <v>315.6918300007825</v>
       </c>
       <c r="D43" t="n">
-        <v>426.3944670008601</v>
+        <v>200.2976637332861</v>
       </c>
       <c r="E43" t="n">
-        <v>426.3944670008601</v>
+        <v>200.2976637332861</v>
       </c>
       <c r="F43" t="n">
-        <v>426.3944670008601</v>
+        <v>200.2976637332861</v>
       </c>
       <c r="G43" t="n">
-        <v>294.2845872700386</v>
+        <v>200.2976637332861</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8272106384313</v>
+        <v>75.84028710167863</v>
       </c>
       <c r="I43" t="n">
         <v>75.84028710167863</v>
       </c>
       <c r="J43" t="n">
-        <v>89.60627926493015</v>
+        <v>89.60627926493</v>
       </c>
       <c r="K43" t="n">
-        <v>223.4700619136859</v>
+        <v>223.4700619136855</v>
       </c>
       <c r="L43" t="n">
-        <v>442.2125963205573</v>
+        <v>442.2125963205567</v>
       </c>
       <c r="M43" t="n">
-        <v>681.6637811056229</v>
+        <v>681.6637811056221</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5432651374676</v>
+        <v>921.5432651374666</v>
       </c>
       <c r="O43" t="n">
-        <v>1129.301054458241</v>
+        <v>1129.301054458239</v>
       </c>
       <c r="P43" t="n">
-        <v>1287.724834334211</v>
+        <v>1287.72483433421</v>
       </c>
       <c r="Q43" t="n">
-        <v>1322.866850414202</v>
+        <v>1322.8668504142</v>
       </c>
       <c r="R43" t="n">
-        <v>1223.425065032843</v>
+        <v>1322.8668504142</v>
       </c>
       <c r="S43" t="n">
-        <v>1046.075226178106</v>
+        <v>1322.8668504142</v>
       </c>
       <c r="T43" t="n">
-        <v>850.084685578365</v>
+        <v>1126.876309814458</v>
       </c>
       <c r="U43" t="n">
-        <v>850.084685578365</v>
+        <v>867.2179170062913</v>
       </c>
       <c r="V43" t="n">
-        <v>624.8921076356778</v>
+        <v>867.2179170062913</v>
       </c>
       <c r="W43" t="n">
-        <v>624.8921076356778</v>
+        <v>607.2926572325301</v>
       </c>
       <c r="X43" t="n">
-        <v>426.3944670008601</v>
+        <v>607.2926572325301</v>
       </c>
       <c r="Y43" t="n">
-        <v>426.3944670008601</v>
+        <v>607.2926572325301</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2157.341400513349</v>
+        <v>2079.542125951473</v>
       </c>
       <c r="C44" t="n">
-        <v>1817.870793836137</v>
+        <v>1740.071519274261</v>
       </c>
       <c r="D44" t="n">
-        <v>1489.097005492586</v>
+        <v>1411.29773093071</v>
       </c>
       <c r="E44" t="n">
-        <v>1132.800663157542</v>
+        <v>1055.001388595666</v>
       </c>
       <c r="F44" t="n">
-        <v>751.3066686311336</v>
+        <v>673.5073940692578</v>
       </c>
       <c r="G44" t="n">
         <v>363.7873628983763</v>
@@ -7646,10 +7646,10 @@
         <v>75.84028710167863</v>
       </c>
       <c r="J44" t="n">
-        <v>270.8492913005776</v>
+        <v>270.8492913005775</v>
       </c>
       <c r="K44" t="n">
-        <v>683.8620419729847</v>
+        <v>683.8620419729846</v>
       </c>
       <c r="L44" t="n">
         <v>1248.517507809959</v>
@@ -7664,34 +7664,34 @@
         <v>3093.914631515478</v>
       </c>
       <c r="P44" t="n">
-        <v>3534.020826908607</v>
+        <v>3534.020826908606</v>
       </c>
       <c r="Q44" t="n">
-        <v>3787.300491214508</v>
+        <v>3787.300491214507</v>
       </c>
       <c r="R44" t="n">
         <v>3792.014355083931</v>
       </c>
       <c r="S44" t="n">
-        <v>3792.014355083931</v>
+        <v>3667.035970273499</v>
       </c>
       <c r="T44" t="n">
-        <v>3724.138141844409</v>
+        <v>3667.035970273499</v>
       </c>
       <c r="U44" t="n">
-        <v>3499.944474114169</v>
+        <v>3442.842302543259</v>
       </c>
       <c r="V44" t="n">
-        <v>3198.373497033797</v>
+        <v>3141.271325462888</v>
       </c>
       <c r="W44" t="n">
-        <v>2875.096752026883</v>
+        <v>3141.271325462888</v>
       </c>
       <c r="X44" t="n">
-        <v>2875.096752026883</v>
+        <v>2797.297477465007</v>
       </c>
       <c r="Y44" t="n">
-        <v>2514.449330314271</v>
+        <v>2436.650055752395</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>75.84028710167863</v>
       </c>
       <c r="J45" t="n">
-        <v>75.84028710167863</v>
+        <v>198.2929343741185</v>
       </c>
       <c r="K45" t="n">
-        <v>411.7522083757857</v>
+        <v>534.2048556482256</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8316369214696</v>
+        <v>1047.28428419391</v>
       </c>
       <c r="M45" t="n">
-        <v>1114.502338168883</v>
+        <v>1236.954985441323</v>
       </c>
       <c r="N45" t="n">
-        <v>1426.403479266678</v>
+        <v>1446.054350683717</v>
       </c>
       <c r="O45" t="n">
         <v>1985.392448471888</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>320.922392882422</v>
+        <v>382.1000792898441</v>
       </c>
       <c r="C46" t="n">
-        <v>320.922392882422</v>
+        <v>382.1000792898441</v>
       </c>
       <c r="D46" t="n">
-        <v>200.297663733286</v>
+        <v>339.3782537072215</v>
       </c>
       <c r="E46" t="n">
-        <v>200.297663733286</v>
+        <v>339.3782537072215</v>
       </c>
       <c r="F46" t="n">
-        <v>200.297663733286</v>
+        <v>339.3782537072215</v>
       </c>
       <c r="G46" t="n">
         <v>200.297663733286</v>
@@ -7804,52 +7804,52 @@
         <v>75.84028710167863</v>
       </c>
       <c r="J46" t="n">
-        <v>89.60627926493015</v>
+        <v>89.60627926493009</v>
       </c>
       <c r="K46" t="n">
-        <v>223.4700619136858</v>
+        <v>223.4700619136857</v>
       </c>
       <c r="L46" t="n">
-        <v>442.2125963205572</v>
+        <v>442.2125963205571</v>
       </c>
       <c r="M46" t="n">
-        <v>681.6637811056229</v>
+        <v>681.6637811056224</v>
       </c>
       <c r="N46" t="n">
-        <v>921.5432651374675</v>
+        <v>921.543265137467</v>
       </c>
       <c r="O46" t="n">
-        <v>1129.301054458241</v>
+        <v>1129.30105445824</v>
       </c>
       <c r="P46" t="n">
         <v>1287.724834334211</v>
       </c>
       <c r="Q46" t="n">
-        <v>1322.866850414201</v>
+        <v>1322.8668504142</v>
       </c>
       <c r="R46" t="n">
-        <v>1223.425065032843</v>
+        <v>1322.8668504142</v>
       </c>
       <c r="S46" t="n">
-        <v>1046.075226178105</v>
+        <v>1322.8668504142</v>
       </c>
       <c r="T46" t="n">
-        <v>1004.271004268094</v>
+        <v>1126.876309814459</v>
       </c>
       <c r="U46" t="n">
-        <v>744.6126114599271</v>
+        <v>867.2179170062923</v>
       </c>
       <c r="V46" t="n">
-        <v>519.4200335172397</v>
+        <v>642.025339063605</v>
       </c>
       <c r="W46" t="n">
-        <v>519.4200335172397</v>
+        <v>382.1000792898441</v>
       </c>
       <c r="X46" t="n">
-        <v>320.922392882422</v>
+        <v>382.1000792898441</v>
       </c>
       <c r="Y46" t="n">
-        <v>320.922392882422</v>
+        <v>382.1000792898441</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
         <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>272.4472657249869</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8073,10 +8073,10 @@
         <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>273.5452359758195</v>
@@ -8231,7 +8231,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6907663866335</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
         <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8538,19 @@
         <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>2.401492640974638</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>417.5030966765298</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>374.0129542090131</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>2.40149264097461</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>350.9909802357432</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>81.19511519068044</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298322</v>
+        <v>65.71641987298277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>2.40149264097461</v>
+        <v>106.2416702726929</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>103.8401776317184</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298322</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>2.40149264097461</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>103.8401776317184</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>374.0129542090133</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298277</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>106.2416702726929</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>374.0129542090133</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>2.40149264097461</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>244.6158719448626</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>103.8401776317184</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>106.2416702726929</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>374.0129542090133</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>106.2416702726929</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>374.0129542090133</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599056</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298277</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10668,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>97.37357683479937</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>198.9488355305543</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298322</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>2.40149264097461</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>97.37357683479991</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.175609590052105</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298274</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>2.401492640974595</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>454.5766115447049</v>
       </c>
       <c r="N42" t="n">
-        <v>103.8401776317179</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298322</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>2.40149264097461</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,10 +11385,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>103.8401776317184</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>374.0129542090133</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.9468865151015</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>93.61215778198526</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>93.25211191812102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.00969537146984</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>149.5929630376687</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>89.20849780606974</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>47.98461425794544</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>72.79929932992667</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>93.25211191812109</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>78.77513070921643</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>140.7361641428139</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>152.0749920723946</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>74.9808097015698</v>
+        <v>67.93686481288648</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>72.79929932992661</v>
       </c>
       <c r="F19" t="n">
-        <v>71.78638470628869</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.25211191812103</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>52.79184988922829</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>152.0749920723946</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.61215778198527</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>16.72249786964123</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>131.138668310115</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>199.1989984332226</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>144.9499900354523</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>93.61215778198532</v>
       </c>
       <c r="D25" t="n">
-        <v>74.98080970156978</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>72.7992993299266</v>
+        <v>72.79929932992665</v>
       </c>
       <c r="F25" t="n">
-        <v>71.78638470628867</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>72.39000373182733</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>19.23496710595301</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.00969537146982</v>
+        <v>54.00969537146988</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-5.740355186725938e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>93.61215778198529</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>68.42037598697294</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>93.25211191812107</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>131.1386683101149</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>199.1989984332235</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>93.61215778198526</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>72.7992993299266</v>
       </c>
       <c r="F31" t="n">
-        <v>54.6090542616357</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.25211191812107</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.60938214531022</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>77.79031695798581</v>
       </c>
       <c r="Y31" t="n">
-        <v>144.9499900354523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>93.61215778198536</v>
+        <v>93.61215778198529</v>
       </c>
       <c r="D34" t="n">
-        <v>74.98080970156988</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>71.78638470628877</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.822421880056311</v>
+        <v>17.80479020722655</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>78.77513070921638</v>
       </c>
       <c r="I34" t="n">
-        <v>48.60938214531032</v>
+        <v>48.60938214531025</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.00969537146985</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>106.1973168652947</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>72.79929932992664</v>
+        <v>72.7992993299266</v>
       </c>
       <c r="F37" t="n">
-        <v>71.78638470628871</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.84095932446759</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>78.7751307092164</v>
+        <v>65.20515787467632</v>
       </c>
       <c r="I37" t="n">
-        <v>48.60938214531026</v>
+        <v>48.60938214531022</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>93.6121577819853</v>
+        <v>93.61215778198529</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>93.25211191812106</v>
+        <v>93.25211191812105</v>
       </c>
       <c r="H40" t="n">
-        <v>57.33750436979202</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>48.60938214531026</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.00969537146985</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>51.93719114363174</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>320.8847503258603</v>
       </c>
       <c r="H41" t="n">
-        <v>157.9044480743454</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>86.37676599488248</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.7286009623276</v>
+        <v>123.7286009623278</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>221.951731052938</v>
       </c>
       <c r="V41" t="n">
-        <v>298.5552673095672</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.6349890213696</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.0498299380602</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>119.4184818576447</v>
+        <v>5.178257252823418</v>
       </c>
       <c r="E43" t="n">
-        <v>117.2369714860015</v>
+        <v>117.2369714860017</v>
       </c>
       <c r="F43" t="n">
-        <v>116.2240568623636</v>
+        <v>116.2240568623638</v>
       </c>
       <c r="G43" t="n">
-        <v>6.90100314068276</v>
+        <v>137.6897840741961</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>93.0470543013853</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>98.44736752754491</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>175.57634046619</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>257.0618088800853</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>222.9406521632605</v>
       </c>
       <c r="W43" t="n">
-        <v>257.3260071760233</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>196.5126642284697</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.3876621915271</v>
+        <v>189.3876621915273</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>77.02128181625748</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>86.37676599488249</v>
+        <v>86.37676599488255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.7286009623276</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>115.9256058660117</v>
+        <v>183.1230569731385</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,10 +25925,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>320.0439775568454</v>
       </c>
       <c r="X44" t="n">
-        <v>340.5341095179014</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.6349890213696</v>
+        <v>150.6349890213697</v>
       </c>
       <c r="C46" t="n">
         <v>138.0498299380602</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>77.12387453084834</v>
       </c>
       <c r="E46" t="n">
-        <v>117.2369714860015</v>
+        <v>117.2369714860016</v>
       </c>
       <c r="F46" t="n">
         <v>116.2240568623636</v>
       </c>
       <c r="G46" t="n">
-        <v>137.689784074196</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>93.04705430138513</v>
+        <v>93.04705430138519</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>98.4473675275448</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>175.5763404661899</v>
       </c>
       <c r="T46" t="n">
-        <v>152.6444555028326</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>257.3260071760233</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>196.5126642284696</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.3876621915271</v>
+        <v>189.3876621915272</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>804268.3599429028</v>
+        <v>804268.3599429027</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>804268.3599429027</v>
+        <v>804268.3599429028</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733631.956910272</v>
+        <v>733631.9569102718</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>691912.1567978513</v>
       </c>
       <c r="F2" t="n">
-        <v>691912.1567978513</v>
+        <v>691912.156797851</v>
       </c>
       <c r="G2" t="n">
-        <v>691912.1567978507</v>
+        <v>691912.1567978511</v>
       </c>
       <c r="H2" t="n">
-        <v>691912.1567978503</v>
+        <v>691912.1567978516</v>
       </c>
       <c r="I2" t="n">
         <v>691912.1567978506</v>
       </c>
       <c r="J2" t="n">
-        <v>691912.1567978507</v>
+        <v>691912.1567978514</v>
       </c>
       <c r="K2" t="n">
         <v>691912.1567978513</v>
       </c>
       <c r="L2" t="n">
-        <v>691912.1567978511</v>
+        <v>691912.1567978506</v>
       </c>
       <c r="M2" t="n">
         <v>691912.1567978513</v>
       </c>
       <c r="N2" t="n">
-        <v>691912.1567978511</v>
+        <v>691912.1567978512</v>
       </c>
       <c r="O2" t="n">
         <v>625199.9983781446</v>
       </c>
       <c r="P2" t="n">
-        <v>625199.9983781446</v>
+        <v>625199.9983781442</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>820732.7162433951</v>
+        <v>820732.716243395</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>70454.64876330488</v>
+        <v>70454.64876330498</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>225248.3724504908</v>
+        <v>225248.3724504907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23357.59292845411</v>
+        <v>23357.59292845404</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,7 +26445,7 @@
         <v>146717.3673560827</v>
       </c>
       <c r="L4" t="n">
-        <v>146717.3673560826</v>
+        <v>146717.3673560827</v>
       </c>
       <c r="M4" t="n">
         <v>146717.3673560827</v>
@@ -26454,10 +26454,10 @@
         <v>146717.3673560827</v>
       </c>
       <c r="O4" t="n">
-        <v>101811.0677851043</v>
+        <v>101811.0677851041</v>
       </c>
       <c r="P4" t="n">
-        <v>101811.0677851043</v>
+        <v>101811.0677851042</v>
       </c>
     </row>
     <row r="5">
@@ -26506,7 +26506,7 @@
         <v>77177.83474118647</v>
       </c>
       <c r="O5" t="n">
-        <v>73442.00408069741</v>
+        <v>73442.0040806974</v>
       </c>
       <c r="P5" t="n">
         <v>73442.00408069741</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>260689.4094327071</v>
+        <v>260689.4094327065</v>
       </c>
       <c r="C6" t="n">
-        <v>275479.1154369511</v>
+        <v>275479.1154369508</v>
       </c>
       <c r="D6" t="n">
-        <v>275479.1154369507</v>
+        <v>275479.1154369509</v>
       </c>
       <c r="E6" t="n">
-        <v>-352715.7615428129</v>
+        <v>-352733.3302121858</v>
       </c>
       <c r="F6" t="n">
-        <v>468016.9547005822</v>
+        <v>467999.3860312089</v>
       </c>
       <c r="G6" t="n">
-        <v>468016.9547005816</v>
+        <v>467999.386031209</v>
       </c>
       <c r="H6" t="n">
-        <v>468016.9547005811</v>
+        <v>467999.3860312095</v>
       </c>
       <c r="I6" t="n">
-        <v>468016.9547005815</v>
+        <v>467999.3860312084</v>
       </c>
       <c r="J6" t="n">
-        <v>397562.3059372767</v>
+        <v>397544.7372679043</v>
       </c>
       <c r="K6" t="n">
-        <v>468016.9547005822</v>
+        <v>467999.3860312094</v>
       </c>
       <c r="L6" t="n">
-        <v>468016.9547005821</v>
+        <v>467999.3860312086</v>
       </c>
       <c r="M6" t="n">
-        <v>242768.5822500914</v>
+        <v>242751.0135807186</v>
       </c>
       <c r="N6" t="n">
-        <v>468016.954700582</v>
+        <v>467999.3860312091</v>
       </c>
       <c r="O6" t="n">
-        <v>426589.3335838887</v>
+        <v>426375.55268387</v>
       </c>
       <c r="P6" t="n">
-        <v>449946.9265123429</v>
+        <v>449733.1456123234</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="F2" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="G2" t="n">
         <v>73.63466331664256</v>
       </c>
       <c r="H2" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="I2" t="n">
+        <v>73.63466331664252</v>
+      </c>
+      <c r="J2" t="n">
+        <v>73.63466331664254</v>
+      </c>
+      <c r="K2" t="n">
         <v>73.63466331664257</v>
       </c>
-      <c r="J2" t="n">
-        <v>73.63466331664253</v>
-      </c>
-      <c r="K2" t="n">
-        <v>73.63466331664253</v>
-      </c>
       <c r="L2" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="M2" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="N2" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="O2" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="P2" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>612.3313776855002</v>
+        <v>612.3313776855</v>
       </c>
       <c r="F3" t="n">
         <v>612.3313776855001</v>
@@ -26774,7 +26774,7 @@
         <v>612.3313776855001</v>
       </c>
       <c r="O3" t="n">
-        <v>612.3313776855002</v>
+        <v>612.3313776855001</v>
       </c>
       <c r="P3" t="n">
         <v>612.3313776855001</v>
@@ -26796,31 +26796,31 @@
         <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>948.0035887709828</v>
+        <v>948.0035887709827</v>
       </c>
       <c r="F4" t="n">
-        <v>948.0035887709828</v>
+        <v>948.0035887709827</v>
       </c>
       <c r="G4" t="n">
-        <v>948.0035887709828</v>
+        <v>948.0035887709827</v>
       </c>
       <c r="H4" t="n">
-        <v>948.0035887709828</v>
+        <v>948.0035887709827</v>
       </c>
       <c r="I4" t="n">
         <v>948.0035887709827</v>
       </c>
       <c r="J4" t="n">
+        <v>948.0035887709828</v>
+      </c>
+      <c r="K4" t="n">
         <v>948.0035887709827</v>
-      </c>
-      <c r="K4" t="n">
-        <v>948.0035887709828</v>
       </c>
       <c r="L4" t="n">
         <v>948.0035887709828</v>
       </c>
       <c r="M4" t="n">
-        <v>948.0035887709828</v>
+        <v>948.0035887709827</v>
       </c>
       <c r="N4" t="n">
         <v>948.0035887709828</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.6346633166425</v>
+        <v>73.6346633166426</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.19699116056763</v>
+        <v>29.19699116056755</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>612.3313776855002</v>
+        <v>612.3313776855</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>903.8714163917542</v>
+        <v>903.8714163917541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>44.13217237922868</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>903.8714163917542</v>
+        <v>903.871416391754</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>73.6346633166425</v>
+        <v>73.6346633166426</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>903.8714163917542</v>
+        <v>903.8714163917541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>362.7438733624829</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>398.3711086526678</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2108315792821</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>109.3200394592721</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,10 +27476,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>123.1146487193992</v>
       </c>
       <c r="D4" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>102.3017902673406</v>
+        <v>104.2327805547648</v>
       </c>
       <c r="F4" t="n">
-        <v>144.630597575249</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.2282351120285</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>310.8206296076677</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27698,19 +27698,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>99.21849105784395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>167.6479590981108</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>145.6435121988869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>176.3834712602904</v>
       </c>
     </row>
     <row r="8">
@@ -27853,28 +27853,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>351.6947110690629</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
         <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>193.5442607079387</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,22 +27980,22 @@
         <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U9" t="n">
-        <v>187.8163559756081</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>104.4833006389838</v>
       </c>
       <c r="E10" t="n">
-        <v>145.6435121988869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>101.2888756437027</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="C11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="D11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="E11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="F11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="G11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="H11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="I11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="T11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="U11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="V11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="W11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="X11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="Y11" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="C13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="D13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="E13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="F13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="G13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="H13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="I13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="J13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="K13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="L13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="M13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="N13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="O13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="P13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="R13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="S13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="T13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="U13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="V13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="W13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="X13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.63466331664254</v>
+        <v>73.63466331664257</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="C14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="D14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="E14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="F14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="G14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="H14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="I14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="T14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="U14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="V14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="W14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="X14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="Y14" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="C16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="D16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="E16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="F16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="G16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="H16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="I16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="J16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="K16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="L16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="M16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="N16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="O16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="P16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="R16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="S16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="T16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="U16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="V16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="W16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="X16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.63466331664254</v>
+        <v>73.6346633166425</v>
       </c>
     </row>
     <row r="17">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="C20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="D20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="E20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="F20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="G20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="H20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="I20" t="n">
-        <v>73.63466331664205</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="T20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="U20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="V20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="W20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="X20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="C22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="D22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="E22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="F22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="G22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="H22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="I22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="J22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="K22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="L22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="M22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="N22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="O22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="P22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="R22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="S22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="T22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="U22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="V22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="W22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="X22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.63466331664256</v>
+        <v>73.63466331664252</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="C23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="D23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="E23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="F23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="G23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="H23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664381</v>
       </c>
       <c r="I23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="T23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="U23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="V23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="W23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="X23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="C25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="D25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="E25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="F25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="G25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="H25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="I25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="J25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="K25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="L25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="M25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="N25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="O25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="P25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="R25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="S25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="T25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="U25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="V25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="W25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="X25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.63466331664257</v>
+        <v>73.63466331664252</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="C26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="D26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="E26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="F26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="G26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="H26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="I26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="T26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="U26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="V26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="W26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="X26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="Y26" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="C28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="D28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="E28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="F28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="G28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="H28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="I28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="J28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="K28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="L28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="M28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="N28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="O28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="P28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="R28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="S28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="T28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="U28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="V28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="W28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="X28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="C29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="D29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="E29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="F29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="G29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="H29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="I29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="T29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="U29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="V29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="W29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="X29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="Y29" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="C31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="D31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="E31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="F31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="G31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="H31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="I31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="J31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="K31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="L31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="M31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="N31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="O31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="P31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="R31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="S31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="T31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="U31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="V31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="W31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="X31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="C32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="D32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="E32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="F32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="G32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="H32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="I32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="T32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="U32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="V32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="W32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="X32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="Y32" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="C34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="D34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="E34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="F34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="G34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="H34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="I34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="J34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="K34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="L34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="M34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="N34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="O34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="P34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="R34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="S34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="T34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="U34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="V34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="W34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="X34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.63466331664247</v>
+        <v>73.63466331664254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="C35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="D35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="E35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="F35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="G35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="H35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="I35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="T35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="U35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="V35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="W35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="X35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="Y35" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="C37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="D37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="E37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="F37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="G37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="H37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="I37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="J37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="K37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="L37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="M37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="N37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="O37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="P37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="R37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="S37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="T37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="U37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="V37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="W37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="X37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="C38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="D38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="E38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="F38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="G38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="H38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="I38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="T38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="U38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="V38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="W38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="X38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="Y38" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="C40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="D40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="E40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="F40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="G40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="H40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="I40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="J40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="K40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="L40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="M40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="N40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="O40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="P40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="R40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="S40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="T40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="U40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="V40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="W40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="X40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.63466331664253</v>
+        <v>73.63466331664254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="C41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="D41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="E41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="F41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="G41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="I41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="T41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="U41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="V41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="W41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="X41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="C43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="D43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="E43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="F43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="G43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="H43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="I43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="J43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="K43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="L43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="M43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="N43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="O43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="P43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="R43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="S43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="T43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="U43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="V43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="X43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.19699116056766</v>
+        <v>29.19699116056749</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="C44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="D44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="E44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="F44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="G44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="I44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="T44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="U44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="V44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="W44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="X44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="Y44" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="J46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="K46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="L46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="M46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="N46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="O46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="P46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="R46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="S46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="T46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="U46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="V46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19699116056766</v>
+        <v>29.1969911605676</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.461633679137687</v>
+        <v>2.461633679137686</v>
       </c>
       <c r="H11" t="n">
-        <v>25.21020591646885</v>
+        <v>25.21020591646884</v>
       </c>
       <c r="I11" t="n">
-        <v>94.90213241495579</v>
+        <v>94.90213241495576</v>
       </c>
       <c r="J11" t="n">
-        <v>208.9280814747125</v>
+        <v>208.9280814747124</v>
       </c>
       <c r="K11" t="n">
-        <v>313.1290351126109</v>
+        <v>313.1290351126107</v>
       </c>
       <c r="L11" t="n">
-        <v>388.464256820521</v>
+        <v>388.4642568205208</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2413347618858</v>
+        <v>432.2413347618856</v>
       </c>
       <c r="N11" t="n">
-        <v>439.2354514527358</v>
+        <v>439.2354514527356</v>
       </c>
       <c r="O11" t="n">
-        <v>414.7575815558104</v>
+        <v>414.7575815558102</v>
       </c>
       <c r="P11" t="n">
-        <v>353.9860001020987</v>
+        <v>353.9860001020985</v>
       </c>
       <c r="Q11" t="n">
-        <v>265.8287439679801</v>
+        <v>265.82874396798</v>
       </c>
       <c r="R11" t="n">
-        <v>154.6305965971329</v>
+        <v>154.6305965971328</v>
       </c>
       <c r="S11" t="n">
-        <v>56.09447746335011</v>
+        <v>56.09447746335009</v>
       </c>
       <c r="T11" t="n">
         <v>10.77580143042523</v>
       </c>
       <c r="U11" t="n">
-        <v>0.196930694331015</v>
+        <v>0.1969306943310149</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.31709013313485</v>
+        <v>1.317090133134849</v>
       </c>
       <c r="H12" t="n">
         <v>12.72031786474973</v>
       </c>
       <c r="I12" t="n">
-        <v>45.34718221538846</v>
+        <v>45.34718221538845</v>
       </c>
       <c r="J12" t="n">
         <v>124.4361340256921</v>
       </c>
       <c r="K12" t="n">
-        <v>212.681172945727</v>
+        <v>212.6811729457269</v>
       </c>
       <c r="L12" t="n">
-        <v>285.9760835124594</v>
+        <v>285.9760835124592</v>
       </c>
       <c r="M12" t="n">
-        <v>333.7206008385976</v>
+        <v>333.7206008385975</v>
       </c>
       <c r="N12" t="n">
-        <v>342.5531921261555</v>
+        <v>342.5531921261554</v>
       </c>
       <c r="O12" t="n">
-        <v>313.3692475972201</v>
+        <v>313.36924759722</v>
       </c>
       <c r="P12" t="n">
-        <v>251.5064483176539</v>
+        <v>251.5064483176538</v>
       </c>
       <c r="Q12" t="n">
-        <v>168.1254001524415</v>
+        <v>168.1254001524414</v>
       </c>
       <c r="R12" t="n">
-        <v>81.77512247656551</v>
+        <v>81.77512247656549</v>
       </c>
       <c r="S12" t="n">
-        <v>24.46437155186879</v>
+        <v>24.46437155186878</v>
       </c>
       <c r="T12" t="n">
-        <v>5.308797510311081</v>
+        <v>5.308797510311078</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08665066665360856</v>
+        <v>0.08665066665360853</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.104204123695164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.817378481580649</v>
+        <v>9.817378481580645</v>
       </c>
       <c r="I13" t="n">
-        <v>33.2064294653055</v>
+        <v>33.20642946530548</v>
       </c>
       <c r="J13" t="n">
-        <v>78.06723154524811</v>
+        <v>78.06723154524808</v>
       </c>
       <c r="K13" t="n">
         <v>128.2884427347654</v>
       </c>
       <c r="L13" t="n">
-        <v>164.165038535552</v>
+        <v>164.1650385355519</v>
       </c>
       <c r="M13" t="n">
         <v>173.0890154988701</v>
       </c>
       <c r="N13" t="n">
-        <v>168.9733455832792</v>
+        <v>168.9733455832791</v>
       </c>
       <c r="O13" t="n">
-        <v>156.0742337746584</v>
+        <v>156.0742337746583</v>
       </c>
       <c r="P13" t="n">
         <v>133.5484696512769</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.46203803051053</v>
+        <v>92.4620380305105</v>
       </c>
       <c r="R13" t="n">
-        <v>49.6490326890571</v>
+        <v>49.64903268905708</v>
       </c>
       <c r="S13" t="n">
-        <v>19.24326641021481</v>
+        <v>19.2432664102148</v>
       </c>
       <c r="T13" t="n">
-        <v>4.717963073970246</v>
+        <v>4.717963073970244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06022931583791812</v>
+        <v>0.06022931583791809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34123,31 +34123,31 @@
         <v>2.461633679137687</v>
       </c>
       <c r="H41" t="n">
-        <v>25.21020591646885</v>
+        <v>25.21020591646884</v>
       </c>
       <c r="I41" t="n">
-        <v>94.90213241495579</v>
+        <v>94.90213241495577</v>
       </c>
       <c r="J41" t="n">
         <v>208.9280814747125</v>
       </c>
       <c r="K41" t="n">
-        <v>313.1290351126109</v>
+        <v>313.1290351126108</v>
       </c>
       <c r="L41" t="n">
-        <v>388.464256820521</v>
+        <v>388.4642568205209</v>
       </c>
       <c r="M41" t="n">
-        <v>432.2413347618858</v>
+        <v>432.2413347618857</v>
       </c>
       <c r="N41" t="n">
-        <v>439.2354514527358</v>
+        <v>439.2354514527357</v>
       </c>
       <c r="O41" t="n">
-        <v>414.7575815558104</v>
+        <v>414.7575815558103</v>
       </c>
       <c r="P41" t="n">
-        <v>353.9860001020987</v>
+        <v>353.9860001020986</v>
       </c>
       <c r="Q41" t="n">
         <v>265.8287439679801</v>
@@ -34156,13 +34156,13 @@
         <v>154.6305965971329</v>
       </c>
       <c r="S41" t="n">
-        <v>56.09447746335011</v>
+        <v>56.0944774633501</v>
       </c>
       <c r="T41" t="n">
         <v>10.77580143042523</v>
       </c>
       <c r="U41" t="n">
-        <v>0.196930694331015</v>
+        <v>0.1969306943310149</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.31709013313485</v>
+        <v>1.317090133134849</v>
       </c>
       <c r="H42" t="n">
         <v>12.72031786474973</v>
@@ -34214,34 +34214,34 @@
         <v>212.681172945727</v>
       </c>
       <c r="L42" t="n">
-        <v>285.9760835124594</v>
+        <v>285.9760835124593</v>
       </c>
       <c r="M42" t="n">
-        <v>333.7206008385976</v>
+        <v>333.7206008385975</v>
       </c>
       <c r="N42" t="n">
-        <v>342.5531921261555</v>
+        <v>342.5531921261554</v>
       </c>
       <c r="O42" t="n">
         <v>313.3692475972201</v>
       </c>
       <c r="P42" t="n">
-        <v>251.5064483176539</v>
+        <v>251.5064483176538</v>
       </c>
       <c r="Q42" t="n">
         <v>168.1254001524415</v>
       </c>
       <c r="R42" t="n">
-        <v>81.77512247656551</v>
+        <v>81.7751224765655</v>
       </c>
       <c r="S42" t="n">
         <v>24.46437155186879</v>
       </c>
       <c r="T42" t="n">
-        <v>5.308797510311081</v>
+        <v>5.308797510311079</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08665066665360856</v>
+        <v>0.08665066665360854</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.104204123695164</v>
       </c>
       <c r="H43" t="n">
-        <v>9.817378481580649</v>
+        <v>9.817378481580647</v>
       </c>
       <c r="I43" t="n">
-        <v>33.2064294653055</v>
+        <v>33.20642946530549</v>
       </c>
       <c r="J43" t="n">
-        <v>78.06723154524811</v>
+        <v>78.06723154524809</v>
       </c>
       <c r="K43" t="n">
         <v>128.2884427347654</v>
@@ -34302,25 +34302,25 @@
         <v>168.9733455832792</v>
       </c>
       <c r="O43" t="n">
-        <v>156.0742337746584</v>
+        <v>156.0742337746583</v>
       </c>
       <c r="P43" t="n">
         <v>133.5484696512769</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.46203803051053</v>
+        <v>92.46203803051051</v>
       </c>
       <c r="R43" t="n">
-        <v>49.6490326890571</v>
+        <v>49.64903268905709</v>
       </c>
       <c r="S43" t="n">
-        <v>19.24326641021481</v>
+        <v>19.2432664102148</v>
       </c>
       <c r="T43" t="n">
-        <v>4.717963073970246</v>
+        <v>4.717963073970245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06022931583791812</v>
+        <v>0.06022931583791811</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="N2" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>42.34905430330016</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>42.34905430330019</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>44.13217237922859</v>
@@ -34951,7 +34951,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="N6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="N6" t="n">
-        <v>42.34905430330019</v>
-      </c>
-      <c r="O6" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="L8" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>196.9787921201</v>
+        <v>196.9787921200999</v>
       </c>
       <c r="K11" t="n">
-        <v>417.1845966387951</v>
+        <v>417.1845966387949</v>
       </c>
       <c r="L11" t="n">
-        <v>570.3590564009842</v>
+        <v>570.3590564009839</v>
       </c>
       <c r="M11" t="n">
-        <v>651.4086350274456</v>
+        <v>651.4086350274454</v>
       </c>
       <c r="N11" t="n">
-        <v>647.169312268129</v>
+        <v>647.1693122681288</v>
       </c>
       <c r="O11" t="n">
-        <v>565.459551396869</v>
+        <v>565.4595513968688</v>
       </c>
       <c r="P11" t="n">
-        <v>444.5517125183118</v>
+        <v>444.5517125183116</v>
       </c>
       <c r="Q11" t="n">
-        <v>255.8380447534353</v>
+        <v>255.8380447534352</v>
       </c>
       <c r="R11" t="n">
-        <v>4.761478655983211</v>
+        <v>4.761478655983154</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>123.6895426994342</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>339.3049709839466</v>
+        <v>74.83973397136793</v>
       </c>
       <c r="L12" t="n">
-        <v>518.2620490360443</v>
+        <v>518.2620490360442</v>
       </c>
       <c r="M12" t="n">
-        <v>191.5865669165793</v>
+        <v>609.089663593109</v>
       </c>
       <c r="N12" t="n">
-        <v>211.2114800428222</v>
+        <v>690.5538543863756</v>
       </c>
       <c r="O12" t="n">
-        <v>544.7859573617887</v>
+        <v>564.6353224295051</v>
       </c>
       <c r="P12" t="n">
-        <v>435.9948095432608</v>
+        <v>117.5320409033235</v>
       </c>
       <c r="Q12" t="n">
-        <v>238.2209138022691</v>
+        <v>28.14362606641993</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>179.6536142255251</v>
       </c>
       <c r="L13" t="n">
-        <v>265.3897271125107</v>
+        <v>265.3897271125106</v>
       </c>
       <c r="M13" t="n">
-        <v>286.3075557773533</v>
+        <v>286.3075557773532</v>
       </c>
       <c r="N13" t="n">
-        <v>286.7401812791504</v>
+        <v>286.7401812791503</v>
       </c>
       <c r="O13" t="n">
-        <v>254.2940250053406</v>
+        <v>254.2940250053405</v>
       </c>
       <c r="P13" t="n">
         <v>204.4616922328129</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>123.6895426994342</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>339.3049709839466</v>
       </c>
       <c r="L15" t="n">
-        <v>147.4217037325851</v>
+        <v>518.2620490360443</v>
       </c>
       <c r="M15" t="n">
-        <v>191.5865669165792</v>
+        <v>657.2916306665791</v>
       </c>
       <c r="N15" t="n">
-        <v>562.2024602785654</v>
+        <v>690.5538543863756</v>
       </c>
       <c r="O15" t="n">
-        <v>564.6353224295051</v>
+        <v>170.7730031527756</v>
       </c>
       <c r="P15" t="n">
-        <v>435.9948095432608</v>
+        <v>198.727156094004</v>
       </c>
       <c r="Q15" t="n">
-        <v>238.2209138022691</v>
+        <v>28.14362606641996</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.34271474521786</v>
+        <v>58.34271474521782</v>
       </c>
       <c r="K16" t="n">
-        <v>179.6536142255251</v>
+        <v>179.653614225525</v>
       </c>
       <c r="L16" t="n">
         <v>265.3897271125106</v>
@@ -35823,7 +35823,7 @@
         <v>204.4616922328129</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.93465809545867</v>
+        <v>79.93465809545863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>255.8380447534353</v>
       </c>
       <c r="R17" t="n">
-        <v>4.761478655983971</v>
+        <v>4.761478655983511</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>103.8401776317183</v>
       </c>
       <c r="K18" t="n">
         <v>339.3049709839466</v>
@@ -35972,7 +35972,7 @@
         <v>191.5865669165792</v>
       </c>
       <c r="N18" t="n">
-        <v>315.0516576745405</v>
+        <v>211.2114800428221</v>
       </c>
       <c r="O18" t="n">
         <v>564.6353224295051</v>
@@ -36130,7 +36130,7 @@
         <v>651.4086350274455</v>
       </c>
       <c r="N20" t="n">
-        <v>647.1693122681289</v>
+        <v>647.1693122681295</v>
       </c>
       <c r="O20" t="n">
         <v>565.459551396869</v>
@@ -36142,7 +36142,7 @@
         <v>255.8380447534353</v>
       </c>
       <c r="R20" t="n">
-        <v>4.761478655983971</v>
+        <v>4.761478655983183</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>123.6895426994342</v>
       </c>
       <c r="K21" t="n">
         <v>339.3049709839466</v>
@@ -36209,10 +36209,10 @@
         <v>191.5865669165792</v>
       </c>
       <c r="N21" t="n">
-        <v>315.0516576745405</v>
+        <v>211.2114800428221</v>
       </c>
       <c r="O21" t="n">
-        <v>564.6353224295051</v>
+        <v>544.785957361789</v>
       </c>
       <c r="P21" t="n">
         <v>435.9948095432608</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.34271474521788</v>
+        <v>58.34271474521783</v>
       </c>
       <c r="K22" t="n">
         <v>179.6536142255251</v>
@@ -36285,19 +36285,19 @@
         <v>265.3897271125106</v>
       </c>
       <c r="M22" t="n">
-        <v>286.3075557773533</v>
+        <v>286.3075557773532</v>
       </c>
       <c r="N22" t="n">
         <v>286.7401812791503</v>
       </c>
       <c r="O22" t="n">
-        <v>254.2940250053406</v>
+        <v>254.2940250053405</v>
       </c>
       <c r="P22" t="n">
         <v>204.4616922328129</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.93465809545869</v>
+        <v>79.93465809545864</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>255.8380447534353</v>
       </c>
       <c r="R23" t="n">
-        <v>4.761478655983183</v>
+        <v>4.761478655983511</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>103.8401776317183</v>
+        <v>123.6895426994342</v>
       </c>
       <c r="K24" t="n">
         <v>339.3049709839466</v>
@@ -36449,7 +36449,7 @@
         <v>211.2114800428221</v>
       </c>
       <c r="O24" t="n">
-        <v>564.6353224295051</v>
+        <v>544.785957361789</v>
       </c>
       <c r="P24" t="n">
         <v>435.9948095432608</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.34271474521789</v>
+        <v>58.34271474521783</v>
       </c>
       <c r="K25" t="n">
         <v>179.6536142255251</v>
       </c>
       <c r="L25" t="n">
-        <v>265.3897271125107</v>
+        <v>265.3897271125106</v>
       </c>
       <c r="M25" t="n">
-        <v>286.3075557773533</v>
+        <v>286.3075557773532</v>
       </c>
       <c r="N25" t="n">
-        <v>286.7401812791504</v>
+        <v>286.7401812791503</v>
       </c>
       <c r="O25" t="n">
-        <v>254.2940250053406</v>
+        <v>254.2940250053405</v>
       </c>
       <c r="P25" t="n">
         <v>204.4616922328129</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.9346580954587</v>
+        <v>79.93465809545864</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>123.6895426994342</v>
       </c>
       <c r="K27" t="n">
-        <v>339.3049709839466</v>
+        <v>319.4556059162306</v>
       </c>
       <c r="L27" t="n">
         <v>518.2620490360443</v>
@@ -36683,7 +36683,7 @@
         <v>191.5865669165792</v>
       </c>
       <c r="N27" t="n">
-        <v>315.0516576745405</v>
+        <v>211.2114800428221</v>
       </c>
       <c r="O27" t="n">
         <v>564.6353224295051</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.34271474521785</v>
+        <v>58.34271474521786</v>
       </c>
       <c r="K28" t="n">
         <v>179.6536142255251</v>
@@ -36771,7 +36771,7 @@
         <v>204.4616922328129</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.93465809545866</v>
+        <v>79.93465809545867</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>103.8401776317183</v>
+        <v>123.6895426994342</v>
       </c>
       <c r="K30" t="n">
         <v>339.3049709839466</v>
@@ -36923,7 +36923,7 @@
         <v>211.2114800428221</v>
       </c>
       <c r="O30" t="n">
-        <v>564.6353224295051</v>
+        <v>544.785957361789</v>
       </c>
       <c r="P30" t="n">
         <v>435.9948095432608</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.34271474521785</v>
+        <v>58.34271474521789</v>
       </c>
       <c r="K31" t="n">
         <v>179.6536142255251</v>
       </c>
       <c r="L31" t="n">
-        <v>265.3897271125106</v>
+        <v>265.3897271125107</v>
       </c>
       <c r="M31" t="n">
-        <v>286.3075557773532</v>
+        <v>286.3075557773533</v>
       </c>
       <c r="N31" t="n">
-        <v>286.7401812791503</v>
+        <v>286.7401812791504</v>
       </c>
       <c r="O31" t="n">
-        <v>254.2940250053405</v>
+        <v>254.2940250053406</v>
       </c>
       <c r="P31" t="n">
         <v>204.4616922328129</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.93465809545866</v>
+        <v>79.9346580954587</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>103.8401776317183</v>
+        <v>123.6895426994342</v>
       </c>
       <c r="K33" t="n">
         <v>339.3049709839466</v>
@@ -37160,7 +37160,7 @@
         <v>211.2114800428221</v>
       </c>
       <c r="O33" t="n">
-        <v>564.6353224295051</v>
+        <v>544.785957361789</v>
       </c>
       <c r="P33" t="n">
         <v>435.9948095432608</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.34271474521779</v>
+        <v>58.34271474521786</v>
       </c>
       <c r="K34" t="n">
-        <v>179.653614225525</v>
+        <v>179.6536142255251</v>
       </c>
       <c r="L34" t="n">
         <v>265.3897271125106</v>
@@ -37236,7 +37236,7 @@
         <v>286.3075557773532</v>
       </c>
       <c r="N34" t="n">
-        <v>286.7401812791502</v>
+        <v>286.7401812791503</v>
       </c>
       <c r="O34" t="n">
         <v>254.2940250053405</v>
@@ -37245,7 +37245,7 @@
         <v>204.4616922328129</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.9346580954586</v>
+        <v>79.93465809545867</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,10 +37324,10 @@
         <v>444.5517125183117</v>
       </c>
       <c r="Q35" t="n">
-        <v>255.8380447534362</v>
+        <v>255.8380447534353</v>
       </c>
       <c r="R35" t="n">
-        <v>4.761478655983183</v>
+        <v>4.761478655983511</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>74.83973397136799</v>
       </c>
       <c r="L36" t="n">
-        <v>518.2620490360443</v>
+        <v>147.4217037325851</v>
       </c>
       <c r="M36" t="n">
         <v>657.2916306665791</v>
       </c>
       <c r="N36" t="n">
-        <v>308.5850568776215</v>
+        <v>690.5538543863756</v>
       </c>
       <c r="O36" t="n">
         <v>564.6353224295051</v>
@@ -37403,7 +37403,7 @@
         <v>117.5320409033236</v>
       </c>
       <c r="Q36" t="n">
-        <v>238.2209138022691</v>
+        <v>227.0924615969743</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.34271474521785</v>
+        <v>58.34271474521789</v>
       </c>
       <c r="K37" t="n">
         <v>179.6536142255251</v>
       </c>
       <c r="L37" t="n">
-        <v>265.3897271125106</v>
+        <v>265.3897271125107</v>
       </c>
       <c r="M37" t="n">
-        <v>286.3075557773532</v>
+        <v>286.3075557773533</v>
       </c>
       <c r="N37" t="n">
-        <v>286.7401812791503</v>
+        <v>286.7401812791504</v>
       </c>
       <c r="O37" t="n">
-        <v>254.2940250053405</v>
+        <v>254.2940250053406</v>
       </c>
       <c r="P37" t="n">
         <v>204.4616922328129</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.93465809545866</v>
+        <v>79.9346580954587</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9787921200999</v>
+        <v>196.9787921201006</v>
       </c>
       <c r="K38" t="n">
         <v>417.184596638795</v>
@@ -37564,7 +37564,7 @@
         <v>255.8380447534353</v>
       </c>
       <c r="R38" t="n">
-        <v>4.761478655983971</v>
+        <v>4.761478655983183</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>123.6895426994342</v>
       </c>
       <c r="K39" t="n">
         <v>74.83973397136799</v>
       </c>
       <c r="L39" t="n">
-        <v>147.4217037325851</v>
+        <v>518.2620490360443</v>
       </c>
       <c r="M39" t="n">
         <v>657.2916306665791</v>
       </c>
       <c r="N39" t="n">
-        <v>690.5538543863756</v>
+        <v>211.2114800428221</v>
       </c>
       <c r="O39" t="n">
         <v>564.6353224295051</v>
       </c>
       <c r="P39" t="n">
-        <v>435.9948095432608</v>
+        <v>214.9056177381235</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.31923565647206</v>
+        <v>238.2209138022691</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.34271474521785</v>
+        <v>58.34271474521786</v>
       </c>
       <c r="K40" t="n">
         <v>179.6536142255251</v>
@@ -37719,7 +37719,7 @@
         <v>204.4616922328129</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.93465809545866</v>
+        <v>79.93465809545867</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>196.9787921201</v>
+        <v>196.9787921200999</v>
       </c>
       <c r="K41" t="n">
-        <v>417.1845966387951</v>
+        <v>417.184596638795</v>
       </c>
       <c r="L41" t="n">
-        <v>570.3590564009842</v>
+        <v>570.3590564009841</v>
       </c>
       <c r="M41" t="n">
-        <v>651.4086350274456</v>
+        <v>651.4086350274455</v>
       </c>
       <c r="N41" t="n">
-        <v>647.169312268129</v>
+        <v>647.1693122681289</v>
       </c>
       <c r="O41" t="n">
         <v>565.459551396869</v>
       </c>
       <c r="P41" t="n">
-        <v>444.5517125183118</v>
+        <v>444.5517125183117</v>
       </c>
       <c r="Q41" t="n">
         <v>255.8380447534353</v>
       </c>
       <c r="R41" t="n">
-        <v>4.761478655983511</v>
+        <v>4.761478655983183</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>123.6895426994342</v>
       </c>
       <c r="K42" t="n">
-        <v>339.3049709839466</v>
+        <v>74.83973397136799</v>
       </c>
       <c r="L42" t="n">
-        <v>518.2620490360443</v>
+        <v>147.4217037325851</v>
       </c>
       <c r="M42" t="n">
-        <v>191.5865669165793</v>
+        <v>646.1631784612841</v>
       </c>
       <c r="N42" t="n">
-        <v>315.05165767454</v>
+        <v>690.5538543863756</v>
       </c>
       <c r="O42" t="n">
-        <v>564.6353224295052</v>
+        <v>564.6353224295051</v>
       </c>
       <c r="P42" t="n">
-        <v>435.9948095432608</v>
+        <v>117.5320409033236</v>
       </c>
       <c r="Q42" t="n">
         <v>238.2209138022691</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>13.90504258914299</v>
+        <v>13.90504258914281</v>
       </c>
       <c r="K43" t="n">
-        <v>135.2159420694502</v>
+        <v>135.21594206945</v>
       </c>
       <c r="L43" t="n">
-        <v>220.9520549564358</v>
+        <v>220.9520549564356</v>
       </c>
       <c r="M43" t="n">
-        <v>241.8698836212784</v>
+        <v>241.8698836212782</v>
       </c>
       <c r="N43" t="n">
-        <v>242.3025091230755</v>
+        <v>242.3025091230753</v>
       </c>
       <c r="O43" t="n">
-        <v>209.8563528492657</v>
+        <v>209.8563528492655</v>
       </c>
       <c r="P43" t="n">
-        <v>160.024020076738</v>
+        <v>160.0240200767379</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.4969859393838</v>
+        <v>35.49698593938362</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>255.8380447534353</v>
       </c>
       <c r="R44" t="n">
-        <v>4.761478655983183</v>
+        <v>4.761478655983971</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>123.6895426994342</v>
       </c>
       <c r="K45" t="n">
         <v>339.3049709839466</v>
@@ -38105,10 +38105,10 @@
         <v>191.5865669165792</v>
       </c>
       <c r="N45" t="n">
-        <v>315.0516576745405</v>
+        <v>211.2114800428221</v>
       </c>
       <c r="O45" t="n">
-        <v>564.6353224295051</v>
+        <v>544.785957361789</v>
       </c>
       <c r="P45" t="n">
         <v>435.9948095432608</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>13.90504258914298</v>
+        <v>13.90504258914292</v>
       </c>
       <c r="K46" t="n">
-        <v>135.2159420694502</v>
+        <v>135.2159420694501</v>
       </c>
       <c r="L46" t="n">
         <v>220.9520549564357</v>
@@ -38193,7 +38193,7 @@
         <v>160.024020076738</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49698593938379</v>
+        <v>35.49698593938373</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
